--- a/capiq_data/in_process_data/IQ332358.xlsx
+++ b/capiq_data/in_process_data/IQ332358.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F7A31-3EF4-4A6E-A8D1-FA4326EC5318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB73726-C3B5-4960-A442-9E9F54488310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"16fc10d1-683f-450c-8e00-bb93442d5482"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"dcf68da3-0b82-42ea-9cd2-e92e441d4973"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>6.94</v>
+        <v>6.2</v>
       </c>
       <c r="D2">
-        <v>101.456</v>
+        <v>56.694000000000003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52.875999999999998</v>
+        <v>48.573999999999998</v>
       </c>
       <c r="G2">
-        <v>51.097000000000001</v>
+        <v>33.567</v>
       </c>
       <c r="H2">
-        <v>2176.0479999999998</v>
+        <v>1303.771</v>
       </c>
       <c r="I2">
-        <v>1.8149999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="J2">
-        <v>1500.193</v>
+        <v>781.08900000000006</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>131.32</v>
+        <v>28.329000000000001</v>
       </c>
       <c r="O2">
-        <v>1635.42</v>
+        <v>818.39499999999998</v>
       </c>
       <c r="P2">
-        <v>1549.1289999999999</v>
+        <v>781.08900000000006</v>
       </c>
       <c r="Q2">
-        <v>-54.149000000000001</v>
+        <v>-2.278</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1315</v>
+        <v>1004</v>
       </c>
       <c r="T2">
-        <v>540.62800000000004</v>
+        <v>485.37599999999998</v>
       </c>
       <c r="U2">
-        <v>45.942</v>
+        <v>16.094999999999999</v>
       </c>
       <c r="V2">
-        <v>27.126000000000001</v>
+        <v>15.696999999999999</v>
       </c>
       <c r="W2">
-        <v>-20.963000000000001</v>
+        <v>-14.164</v>
       </c>
       <c r="X2">
-        <v>-15.268000000000001</v>
+        <v>-11.041</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-2.2629999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="AA2">
-        <v>6.94</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>8.8439999999999994</v>
+        <v>4.8609999999999998</v>
       </c>
       <c r="D3">
-        <v>103.318</v>
+        <v>56.610999999999997</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.512999999999998</v>
+        <v>48.453000000000003</v>
       </c>
       <c r="G3">
-        <v>52.228999999999999</v>
+        <v>31.806000000000001</v>
       </c>
       <c r="H3">
-        <v>2201.7469999999998</v>
+        <v>1294.547</v>
       </c>
       <c r="I3">
-        <v>2.6150000000000002</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="J3">
-        <v>1268.818</v>
+        <v>791.245</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-70.671000000000006</v>
+        <v>-1.2609999999999999</v>
       </c>
       <c r="N3">
-        <v>299.35399999999998</v>
+        <v>25.986000000000001</v>
       </c>
       <c r="O3">
-        <v>1578.479</v>
+        <v>826.16</v>
       </c>
       <c r="P3">
-        <v>1493.2249999999999</v>
+        <v>791.245</v>
       </c>
       <c r="Q3">
-        <v>1.28</v>
+        <v>2.7679999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>623.26800000000003</v>
+        <v>468.387</v>
       </c>
       <c r="U3">
-        <v>47.222000000000001</v>
+        <v>18.863</v>
       </c>
       <c r="V3">
-        <v>31.302</v>
+        <v>18.978000000000002</v>
       </c>
       <c r="W3">
-        <v>-22.076000000000001</v>
+        <v>-14.276</v>
       </c>
       <c r="X3">
-        <v>17.265000000000001</v>
+        <v>-7.8639999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1.0069999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AA3">
-        <v>8.8439999999999994</v>
+        <v>4.8609999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>7.4279999999999999</v>
+        <v>4.6020000000000003</v>
       </c>
       <c r="D4">
-        <v>102.673</v>
+        <v>58.106999999999999</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.356000000000002</v>
+        <v>49.753999999999998</v>
       </c>
       <c r="G4">
-        <v>22.765000000000001</v>
+        <v>24.652999999999999</v>
       </c>
       <c r="H4">
-        <v>2313.5210000000002</v>
+        <v>1286.7529999999999</v>
       </c>
       <c r="I4">
-        <v>2.8260000000000001</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="J4">
-        <v>1454.001</v>
+        <v>790.70799999999997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>208.47399999999999</v>
+        <v>28.242000000000001</v>
       </c>
       <c r="O4">
-        <v>1673.221</v>
+        <v>827.91499999999996</v>
       </c>
       <c r="P4">
-        <v>1577.02</v>
+        <v>790.70799999999997</v>
       </c>
       <c r="Q4">
-        <v>-34.384</v>
+        <v>-8.11</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>640.29999999999995</v>
+        <v>458.83800000000002</v>
       </c>
       <c r="U4">
-        <v>12.837999999999999</v>
+        <v>10.753</v>
       </c>
       <c r="V4">
-        <v>52.249000000000002</v>
+        <v>23.626999999999999</v>
       </c>
       <c r="W4">
-        <v>-22.988</v>
+        <v>-14.157999999999999</v>
       </c>
       <c r="X4">
-        <v>92.65</v>
+        <v>-18.867999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.46200000000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AA4">
-        <v>7.4279999999999999</v>
+        <v>4.6020000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>13.791</v>
+        <v>13.09</v>
       </c>
       <c r="D5">
-        <v>110.214</v>
+        <v>57.177</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.735999999999997</v>
+        <v>48.695999999999998</v>
       </c>
       <c r="G5">
-        <v>38.247999999999998</v>
+        <v>25.047000000000001</v>
       </c>
       <c r="H5">
-        <v>2412.027</v>
+        <v>1273.521</v>
       </c>
       <c r="I5">
-        <v>3.0880000000000001</v>
+        <v>1.9970000000000001</v>
       </c>
       <c r="J5">
-        <v>1586.82</v>
+        <v>775.46699999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>136.69200000000001</v>
+        <v>39.28</v>
       </c>
       <c r="O5">
-        <v>1733.7280000000001</v>
+        <v>823.53200000000004</v>
       </c>
       <c r="P5">
-        <v>1627.0450000000001</v>
+        <v>775.46699999999998</v>
       </c>
       <c r="Q5">
-        <v>11.416</v>
+        <v>-0.107</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>678.29899999999998</v>
+        <v>449.98899999999998</v>
       </c>
       <c r="U5">
-        <v>24.254000000000001</v>
+        <v>10.646000000000001</v>
       </c>
       <c r="V5">
-        <v>45.66</v>
+        <v>18.335999999999999</v>
       </c>
       <c r="W5">
-        <v>-23.266999999999999</v>
+        <v>-14.215999999999999</v>
       </c>
       <c r="X5">
-        <v>60.371000000000002</v>
+        <v>-32.533999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.316</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AA5">
-        <v>13.791</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>18.757999999999999</v>
+        <v>6.1449999999999996</v>
       </c>
       <c r="D6">
-        <v>114.008</v>
+        <v>61.066000000000003</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>60.012</v>
+        <v>48.883000000000003</v>
       </c>
       <c r="G6">
-        <v>59.697000000000003</v>
+        <v>23.431999999999999</v>
       </c>
       <c r="H6">
-        <v>2530.4679999999998</v>
+        <v>1263.4880000000001</v>
       </c>
       <c r="I6">
-        <v>2.0910000000000002</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="J6">
-        <v>1649.7550000000001</v>
+        <v>779.66399999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>133.136</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="O6">
-        <v>1787.0060000000001</v>
+        <v>821.22799999999995</v>
       </c>
       <c r="P6">
-        <v>1682.85</v>
+        <v>779.66399999999999</v>
       </c>
       <c r="Q6">
-        <v>33.063000000000002</v>
+        <v>1.546</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>1399</v>
+        <v>987</v>
       </c>
       <c r="T6">
-        <v>743.46199999999999</v>
+        <v>442.26</v>
       </c>
       <c r="U6">
-        <v>57.317</v>
+        <v>12.192</v>
       </c>
       <c r="V6">
-        <v>43.076999999999998</v>
+        <v>19.635999999999999</v>
       </c>
       <c r="W6">
-        <v>-23.696999999999999</v>
+        <v>-14.22</v>
       </c>
       <c r="X6">
-        <v>110.961</v>
+        <v>-12.035</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.121</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="AA6">
-        <v>18.757999999999999</v>
+        <v>6.1449999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>23.89</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>113.276</v>
+        <v>57.167999999999999</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>61.478000000000002</v>
+        <v>48.386000000000003</v>
       </c>
       <c r="G7">
-        <v>65.933000000000007</v>
+        <v>21.01</v>
       </c>
       <c r="H7">
-        <v>2527.41</v>
+        <v>1252.596</v>
       </c>
       <c r="I7">
-        <v>4.0010000000000003</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="J7">
-        <v>1540.056</v>
+        <v>783.60699999999997</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-159.60900000000001</v>
+        <v>-1.0569999999999999</v>
       </c>
       <c r="N7">
-        <v>119.19</v>
+        <v>25.123000000000001</v>
       </c>
       <c r="O7">
-        <v>1663.692</v>
+        <v>817.41</v>
       </c>
       <c r="P7">
-        <v>1569.4159999999999</v>
+        <v>783.60699999999997</v>
       </c>
       <c r="Q7">
-        <v>-15.491</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>863.71799999999996</v>
+        <v>435.18599999999998</v>
       </c>
       <c r="U7">
-        <v>41.826000000000001</v>
+        <v>12.521000000000001</v>
       </c>
       <c r="V7">
-        <v>37.911000000000001</v>
+        <v>15.346</v>
       </c>
       <c r="W7">
-        <v>-25.722999999999999</v>
+        <v>-14.233000000000001</v>
       </c>
       <c r="X7">
-        <v>-19.289000000000001</v>
+        <v>-11.573</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.40799999999999997</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="AA7">
-        <v>23.89</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>28.16</v>
+        <v>4.97</v>
       </c>
       <c r="D8">
-        <v>116.43</v>
+        <v>58.142000000000003</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.198</v>
+        <v>49.171999999999997</v>
       </c>
       <c r="G8">
-        <v>32.286999999999999</v>
+        <v>25.344000000000001</v>
       </c>
       <c r="H8">
-        <v>2599.0880000000002</v>
+        <v>1250.962</v>
       </c>
       <c r="I8">
-        <v>5.5819999999999999</v>
+        <v>1.546</v>
       </c>
       <c r="J8">
-        <v>1589.421</v>
+        <v>788.13599999999997</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>139.00700000000001</v>
+        <v>37.83</v>
       </c>
       <c r="O8">
-        <v>1733.125</v>
+        <v>834.65200000000004</v>
       </c>
       <c r="P8">
-        <v>1617.069</v>
+        <v>788.13599999999997</v>
       </c>
       <c r="Q8">
-        <v>-19.484999999999999</v>
+        <v>3.5819999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>865.96299999999997</v>
+        <v>416.31</v>
       </c>
       <c r="U8">
-        <v>22.341000000000001</v>
+        <v>16.103000000000002</v>
       </c>
       <c r="V8">
-        <v>62.953000000000003</v>
+        <v>22.033999999999999</v>
       </c>
       <c r="W8">
-        <v>-27.009</v>
+        <v>-14.266</v>
       </c>
       <c r="X8">
-        <v>-3.3119999999999998</v>
+        <v>-12.635999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>10.298</v>
+        <v>0.155</v>
       </c>
       <c r="AA8">
-        <v>28.16</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>30.866</v>
+        <v>3.7970000000000002</v>
       </c>
       <c r="D9">
-        <v>123.11799999999999</v>
+        <v>59.390999999999998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>65.025999999999996</v>
+        <v>49.892000000000003</v>
       </c>
       <c r="G9">
-        <v>25.207999999999998</v>
+        <v>24.231000000000002</v>
       </c>
       <c r="H9">
-        <v>2775.835</v>
+        <v>1278.4929999999999</v>
       </c>
       <c r="I9">
-        <v>5.6369999999999996</v>
+        <v>1.038</v>
       </c>
       <c r="J9">
-        <v>1705.11</v>
+        <v>822.73199999999997</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>140.72</v>
+        <v>54.749000000000002</v>
       </c>
       <c r="O9">
-        <v>1850.463</v>
+        <v>886.01900000000001</v>
       </c>
       <c r="P9">
-        <v>1732.0740000000001</v>
+        <v>822.73199999999997</v>
       </c>
       <c r="Q9">
-        <v>-8.9190000000000005</v>
+        <v>-1.925</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>925.37199999999996</v>
+        <v>392.47399999999999</v>
       </c>
       <c r="U9">
-        <v>13.422000000000001</v>
+        <v>14.178000000000001</v>
       </c>
       <c r="V9">
-        <v>57.156999999999996</v>
+        <v>20.260999999999999</v>
       </c>
       <c r="W9">
-        <v>-27.123000000000001</v>
+        <v>-14.343</v>
       </c>
       <c r="X9">
-        <v>131.667</v>
+        <v>18.358000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
       <c r="AA9">
-        <v>30.866</v>
+        <v>3.7970000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>22.306999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>123.06399999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>70.174999999999997</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>10.170999999999999</v>
+        <v>18.056999999999999</v>
       </c>
       <c r="H10">
-        <v>2751.0680000000002</v>
+        <v>1239.4670000000001</v>
       </c>
       <c r="I10">
-        <v>4.5860000000000003</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="J10">
-        <v>1673.848</v>
+        <v>803.70299999999997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>127.39700000000001</v>
+        <v>55.835999999999999</v>
       </c>
       <c r="O10">
-        <v>1805.9580000000001</v>
+        <v>867.89099999999996</v>
       </c>
       <c r="P10">
-        <v>1695.271</v>
+        <v>831.78700000000003</v>
       </c>
       <c r="Q10">
-        <v>-4.3470000000000004</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>1384</v>
+        <v>1023</v>
       </c>
       <c r="T10">
-        <v>945.11</v>
+        <v>371.57600000000002</v>
       </c>
       <c r="U10">
-        <v>9.0749999999999993</v>
+        <v>10.593999999999999</v>
       </c>
       <c r="V10">
-        <v>52.945999999999998</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-27.893999999999998</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-39.052</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>22.306999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>21.18</v>
+        <v>4.3259999999999996</v>
       </c>
       <c r="D11">
-        <v>127.92</v>
+        <v>57.65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>72.281000000000006</v>
+        <v>49.247999999999998</v>
       </c>
       <c r="G11">
-        <v>9.1470000000000002</v>
+        <v>12.505000000000001</v>
       </c>
       <c r="H11">
-        <v>2775.0079999999998</v>
+        <v>1245.8610000000001</v>
       </c>
       <c r="I11">
-        <v>5.6719999999999997</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="J11">
-        <v>1686.145</v>
+        <v>825.77599999999995</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.37</v>
+        <v>-148.32599999999999</v>
       </c>
       <c r="N11">
-        <v>121.35899999999999</v>
+        <v>52.411999999999999</v>
       </c>
       <c r="O11">
-        <v>1812.6949999999999</v>
+        <v>886.43700000000001</v>
       </c>
       <c r="P11">
-        <v>1708.566</v>
+        <v>825.77599999999995</v>
       </c>
       <c r="Q11">
-        <v>-0.85099999999999998</v>
+        <v>-4.835</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>962.31299999999999</v>
+        <v>359.42399999999998</v>
       </c>
       <c r="U11">
-        <v>8.2240000000000002</v>
+        <v>5.7590000000000003</v>
       </c>
       <c r="V11">
-        <v>42.116999999999997</v>
+        <v>15.88</v>
       </c>
       <c r="W11">
-        <v>-29.417999999999999</v>
+        <v>-14.368</v>
       </c>
       <c r="X11">
-        <v>8.2729999999999997</v>
+        <v>4.12</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>4.9480000000000004</v>
+        <v>-2.363</v>
       </c>
       <c r="AA11">
-        <v>21.18</v>
+        <v>4.3259999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>59.088999999999999</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="D12">
-        <v>131.80099999999999</v>
+        <v>56.003999999999998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>73.268000000000001</v>
+        <v>47.448999999999998</v>
       </c>
       <c r="G12">
-        <v>38.35</v>
+        <v>24.911999999999999</v>
       </c>
       <c r="H12">
-        <v>2834.2170000000001</v>
+        <v>1253.57</v>
       </c>
       <c r="I12">
-        <v>10.085000000000001</v>
+        <v>3.39</v>
       </c>
       <c r="J12">
-        <v>1687.721</v>
+        <v>833.21199999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>129.178</v>
+        <v>66.025999999999996</v>
       </c>
       <c r="O12">
-        <v>1822.42</v>
+        <v>907.40599999999995</v>
       </c>
       <c r="P12">
-        <v>1703.4480000000001</v>
+        <v>833.21199999999999</v>
       </c>
       <c r="Q12">
-        <v>0.56799999999999995</v>
+        <v>12.007999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1011.797</v>
+        <v>346.16399999999999</v>
       </c>
       <c r="U12">
-        <v>8.7919999999999998</v>
+        <v>17.766999999999999</v>
       </c>
       <c r="V12">
-        <v>67.265000000000001</v>
+        <v>29.63</v>
       </c>
       <c r="W12">
-        <v>-29.696999999999999</v>
+        <v>-14.391999999999999</v>
       </c>
       <c r="X12">
-        <v>-46.709000000000003</v>
+        <v>-7.931</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3.0659999999999998</v>
+        <v>-2.0539999999999998</v>
       </c>
       <c r="AA12">
-        <v>59.088999999999999</v>
+        <v>5.1050000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>44.283999999999999</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>135.40600000000001</v>
+        <v>59.323999999999998</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>74.742999999999995</v>
+        <v>49.494</v>
       </c>
       <c r="G13">
-        <v>250.422</v>
+        <v>15.94</v>
       </c>
       <c r="H13">
-        <v>3028.2570000000001</v>
+        <v>1366.4580000000001</v>
       </c>
       <c r="I13">
-        <v>6.9630000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="J13">
-        <v>1609.559</v>
+        <v>911.69600000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>383.63799999999998</v>
+        <v>62.825000000000003</v>
       </c>
       <c r="O13">
-        <v>1998.2360000000001</v>
+        <v>979.23</v>
       </c>
       <c r="P13">
-        <v>1870.06</v>
+        <v>911.69600000000003</v>
       </c>
       <c r="Q13">
-        <v>172.31299999999999</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1030.021</v>
+        <v>387.22800000000001</v>
       </c>
       <c r="U13">
-        <v>181.10499999999999</v>
+        <v>5.5759999999999996</v>
       </c>
       <c r="V13">
-        <v>59.395000000000003</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-29.699000000000002</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>136.054</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>44.283999999999999</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-9.2720000000000002</v>
+        <v>4.3049999999999997</v>
       </c>
       <c r="D14">
-        <v>239.607</v>
+        <v>62.835000000000001</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>136.65199999999999</v>
+        <v>53.488999999999997</v>
       </c>
       <c r="G14">
-        <v>172.9</v>
+        <v>19.523</v>
       </c>
       <c r="H14">
-        <v>6841.9250000000002</v>
+        <v>1406.5329999999999</v>
       </c>
       <c r="I14">
-        <v>15.067</v>
+        <v>1.696</v>
       </c>
       <c r="J14">
-        <v>3472.7179999999998</v>
+        <v>977.44799999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>250.62</v>
+        <v>30.736000000000001</v>
       </c>
       <c r="O14">
-        <v>3728.3879999999999</v>
+        <v>1013.22</v>
       </c>
       <c r="P14">
-        <v>3492.7330000000002</v>
+        <v>977.44799999999998</v>
       </c>
       <c r="Q14">
-        <v>-91.772000000000006</v>
+        <v>3.6629999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2151</v>
+        <v>1069</v>
       </c>
       <c r="T14">
-        <v>3113.5369999999998</v>
+        <v>393.31299999999999</v>
       </c>
       <c r="U14">
-        <v>89.332999999999998</v>
+        <v>8.7949999999999999</v>
       </c>
       <c r="V14">
-        <v>89.602999999999994</v>
+        <v>13.590999999999999</v>
       </c>
       <c r="W14">
-        <v>-51.883000000000003</v>
+        <v>-15.984</v>
       </c>
       <c r="X14">
-        <v>-191.952</v>
+        <v>38.899000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1.3720000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="AA14">
-        <v>-9.2720000000000002</v>
+        <v>4.3049999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>14.866</v>
+        <v>5.0549999999999997</v>
       </c>
       <c r="D15">
-        <v>243.48699999999999</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>139.102</v>
+        <v>55.502000000000002</v>
       </c>
       <c r="G15">
-        <v>194.43600000000001</v>
+        <v>17.661999999999999</v>
       </c>
       <c r="H15">
-        <v>6785.6629999999996</v>
+        <v>1424.818</v>
       </c>
       <c r="I15">
-        <v>15.173999999999999</v>
+        <v>1.736</v>
       </c>
       <c r="J15">
-        <v>3042.3589999999999</v>
+        <v>979.495</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-35.921999999999997</v>
+        <v>-55.966000000000001</v>
       </c>
       <c r="N15">
-        <v>661.33</v>
+        <v>54.686</v>
       </c>
       <c r="O15">
-        <v>3708.5169999999998</v>
+        <v>1039.3620000000001</v>
       </c>
       <c r="P15">
-        <v>3480.9960000000001</v>
+        <v>979.495</v>
       </c>
       <c r="Q15">
-        <v>32.634999999999998</v>
+        <v>-1.8520000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3077.1460000000002</v>
+        <v>385.45600000000002</v>
       </c>
       <c r="U15">
-        <v>121.901</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="V15">
-        <v>96.061000000000007</v>
+        <v>20.875</v>
       </c>
       <c r="W15">
-        <v>-54.661000000000001</v>
+        <v>-15.243</v>
       </c>
       <c r="X15">
-        <v>-91.753</v>
+        <v>17.849</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>8.8650000000000002</v>
+        <v>-4.6269999999999998</v>
       </c>
       <c r="AA15">
-        <v>14.866</v>
+        <v>5.0549999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>31.613</v>
+        <v>4.992</v>
       </c>
       <c r="D16">
-        <v>245.30500000000001</v>
+        <v>66.033000000000001</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>136.881</v>
+        <v>55.567</v>
       </c>
       <c r="G16">
-        <v>125.292</v>
+        <v>45.472000000000001</v>
       </c>
       <c r="H16">
-        <v>6783.1210000000001</v>
+        <v>1458.8050000000001</v>
       </c>
       <c r="I16">
-        <v>15.297000000000001</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="J16">
-        <v>3470.03</v>
+        <v>1017.578</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>250.482</v>
+        <v>43.844999999999999</v>
       </c>
       <c r="O16">
-        <v>3725.9189999999999</v>
+        <v>1066.6300000000001</v>
       </c>
       <c r="P16">
-        <v>3493.41</v>
+        <v>1017.578</v>
       </c>
       <c r="Q16">
-        <v>-95.882999999999996</v>
+        <v>30.606999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3057.2020000000002</v>
+        <v>392.17500000000001</v>
       </c>
       <c r="U16">
-        <v>26.318000000000001</v>
+        <v>38.906999999999996</v>
       </c>
       <c r="V16">
-        <v>92.299000000000007</v>
+        <v>34.323999999999998</v>
       </c>
       <c r="W16">
-        <v>-54.753</v>
+        <v>-15.433999999999999</v>
       </c>
       <c r="X16">
-        <v>-33.386000000000003</v>
+        <v>19.800999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>2.6760000000000002</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="AA16">
-        <v>31.613</v>
+        <v>4.992</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>66.975999999999999</v>
+        <v>3.1309999999999998</v>
       </c>
       <c r="D17">
-        <v>249.57400000000001</v>
+        <v>67.465999999999994</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>141.25</v>
+        <v>56.319000000000003</v>
       </c>
       <c r="G17">
-        <v>183.417</v>
+        <v>15.897</v>
       </c>
       <c r="H17">
-        <v>6783.0140000000001</v>
+        <v>1457.1010000000001</v>
       </c>
       <c r="I17">
-        <v>10.089</v>
+        <v>2.391</v>
       </c>
       <c r="J17">
-        <v>3427.069</v>
+        <v>1016.7859999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>274.98500000000001</v>
+        <v>56.793999999999997</v>
       </c>
       <c r="O17">
-        <v>3707.0819999999999</v>
+        <v>1078.9069999999999</v>
       </c>
       <c r="P17">
-        <v>3443.1460000000002</v>
+        <v>1016.7859999999999</v>
       </c>
       <c r="Q17">
-        <v>62.204000000000001</v>
+        <v>-29.501000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3075.9319999999998</v>
+        <v>378.19400000000002</v>
       </c>
       <c r="U17">
-        <v>87.766000000000005</v>
+        <v>9.4060000000000006</v>
       </c>
       <c r="V17">
-        <v>108.98</v>
+        <v>17.317</v>
       </c>
       <c r="W17">
-        <v>-54.884</v>
+        <v>-15.644</v>
       </c>
       <c r="X17">
-        <v>-118.111</v>
+        <v>-11.695</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>4.423</v>
+        <v>-0.68400000000000005</v>
       </c>
       <c r="AA17">
-        <v>66.975999999999999</v>
+        <v>3.1309999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>34.524999999999999</v>
+        <v>12.02</v>
       </c>
       <c r="D18">
-        <v>253.21899999999999</v>
+        <v>68.537999999999997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>146.786</v>
+        <v>57.773000000000003</v>
       </c>
       <c r="G18">
-        <v>54.911999999999999</v>
+        <v>23.753</v>
       </c>
       <c r="H18">
-        <v>6821.7780000000002</v>
+        <v>1522.307</v>
       </c>
       <c r="I18">
-        <v>8.3949999999999996</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="J18">
-        <v>3512.6990000000001</v>
+        <v>1083.473</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>251.357</v>
+        <v>44.148000000000003</v>
       </c>
       <c r="O18">
-        <v>3769.9670000000001</v>
+        <v>1133.606</v>
       </c>
       <c r="P18">
-        <v>3526.0909999999999</v>
+        <v>1083.473</v>
       </c>
       <c r="Q18">
-        <v>-61.636000000000003</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2033</v>
+        <v>1121</v>
       </c>
       <c r="T18">
-        <v>3051.8110000000001</v>
+        <v>388.70100000000002</v>
       </c>
       <c r="U18">
-        <v>26.652999999999999</v>
+        <v>9.1329999999999991</v>
       </c>
       <c r="V18">
-        <v>88.037999999999997</v>
+        <v>15.712999999999999</v>
       </c>
       <c r="W18">
-        <v>-54.86</v>
+        <v>-16.135000000000002</v>
       </c>
       <c r="X18">
-        <v>-1.044</v>
+        <v>54.536999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6.6609999999999996</v>
       </c>
       <c r="AA18">
-        <v>34.524999999999999</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>61.267000000000003</v>
+        <v>4.3259999999999996</v>
       </c>
       <c r="D19">
-        <v>258.55200000000002</v>
+        <v>72.010999999999996</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>149.072</v>
+        <v>51.351999999999997</v>
       </c>
       <c r="G19">
-        <v>220.608</v>
+        <v>21.201000000000001</v>
       </c>
       <c r="H19">
-        <v>6799.6819999999998</v>
+        <v>1554.6469999999999</v>
       </c>
       <c r="I19">
-        <v>7.68</v>
+        <v>2.427</v>
       </c>
       <c r="J19">
-        <v>3184.1309999999999</v>
+        <v>869.96100000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-17.472000000000001</v>
+        <v>-0.625</v>
       </c>
       <c r="N19">
-        <v>555.84500000000003</v>
+        <v>276.142</v>
       </c>
       <c r="O19">
-        <v>3746.2849999999999</v>
+        <v>1152.319</v>
       </c>
       <c r="P19">
-        <v>3494.5</v>
+        <v>1116.2750000000001</v>
       </c>
       <c r="Q19">
-        <v>-5.0679999999999996</v>
+        <v>-3.1240000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3053.3969999999999</v>
+        <v>402.32799999999997</v>
       </c>
       <c r="U19">
-        <v>18.331</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="V19">
-        <v>102.85899999999999</v>
+        <v>19.814</v>
       </c>
       <c r="W19">
-        <v>-57.84</v>
+        <v>-15.938000000000001</v>
       </c>
       <c r="X19">
-        <v>-75.751000000000005</v>
+        <v>28.233000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>6.0000000000000001E-3</v>
+        <v>0.218</v>
       </c>
       <c r="AA19">
-        <v>61.267000000000003</v>
+        <v>4.3259999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>136.29900000000001</v>
+        <v>8.1929999999999996</v>
       </c>
       <c r="D20">
-        <v>258.89100000000002</v>
+        <v>72.323999999999998</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>149.88999999999999</v>
+        <v>51.305999999999997</v>
       </c>
       <c r="G20">
-        <v>149.94200000000001</v>
+        <v>13.882</v>
       </c>
       <c r="H20">
-        <v>6843.4129999999996</v>
+        <v>1520.5309999999999</v>
       </c>
       <c r="I20">
-        <v>11.884</v>
+        <v>2.4390000000000001</v>
       </c>
       <c r="J20">
-        <v>2973.895</v>
+        <v>891.37300000000005</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>720.93499999999995</v>
+        <v>242.11500000000001</v>
       </c>
       <c r="O20">
-        <v>3701.1280000000002</v>
+        <v>1139.7619999999999</v>
       </c>
       <c r="P20">
-        <v>3455.3150000000001</v>
+        <v>1086.6469999999999</v>
       </c>
       <c r="Q20">
-        <v>8.4450000000000003</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3142.2849999999999</v>
+        <v>380.76900000000001</v>
       </c>
       <c r="U20">
-        <v>30.03</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="V20">
-        <v>123.67100000000001</v>
+        <v>35.17</v>
       </c>
       <c r="W20">
-        <v>-57.886000000000003</v>
+        <v>-16.135000000000002</v>
       </c>
       <c r="X20">
-        <v>-118.251</v>
+        <v>-51.085999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.03</v>
+        <v>14.537000000000001</v>
       </c>
       <c r="AA20">
-        <v>136.29900000000001</v>
+        <v>8.1929999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>91.733999999999995</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="D21">
-        <v>261.99799999999999</v>
+        <v>74.87</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>152.11500000000001</v>
+        <v>52.747</v>
       </c>
       <c r="G21">
-        <v>134.203</v>
+        <v>18.375</v>
       </c>
       <c r="H21">
-        <v>6887.3410000000003</v>
+        <v>1575.1679999999999</v>
       </c>
       <c r="I21">
-        <v>10.509</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="J21">
-        <v>3159.4180000000001</v>
+        <v>1138.9949999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>549.33600000000001</v>
+        <v>54.621000000000002</v>
       </c>
       <c r="O21">
-        <v>3716.02</v>
+        <v>1200.0139999999999</v>
       </c>
       <c r="P21">
-        <v>3443.0880000000002</v>
+        <v>1140.1959999999999</v>
       </c>
       <c r="Q21">
-        <v>14.846</v>
+        <v>3.4769999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3171.3209999999999</v>
+        <v>375.154</v>
       </c>
       <c r="U21">
-        <v>44.875999999999998</v>
+        <v>10.093</v>
       </c>
       <c r="V21">
-        <v>135.006</v>
+        <v>21.341000000000001</v>
       </c>
       <c r="W21">
-        <v>-58.31</v>
+        <v>-16.097999999999999</v>
       </c>
       <c r="X21">
-        <v>-73.424999999999997</v>
+        <v>44.99</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1E-3</v>
+        <v>0.04</v>
       </c>
       <c r="AA21">
-        <v>91.733999999999995</v>
+        <v>3.6150000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>42.987000000000002</v>
+        <v>3.61</v>
       </c>
       <c r="D22">
-        <v>263.33800000000002</v>
+        <v>77.643000000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>157.29</v>
+        <v>55.523000000000003</v>
       </c>
       <c r="G22">
-        <v>63.646999999999998</v>
+        <v>19.597999999999999</v>
       </c>
       <c r="H22">
-        <v>6847.7809999999999</v>
+        <v>1580.125</v>
       </c>
       <c r="I22">
-        <v>5.9219999999999997</v>
+        <v>3.278</v>
       </c>
       <c r="J22">
-        <v>3427.5680000000002</v>
+        <v>1140.046</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>254.14</v>
+        <v>41.326000000000001</v>
       </c>
       <c r="O22">
-        <v>3689.9580000000001</v>
+        <v>1187.8009999999999</v>
       </c>
       <c r="P22">
-        <v>3437.9259999999999</v>
+        <v>1142.4459999999999</v>
       </c>
       <c r="Q22">
-        <v>-7.3170000000000002</v>
+        <v>3.9710000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>1949</v>
+        <v>1148</v>
       </c>
       <c r="T22">
-        <v>3157.8229999999999</v>
+        <v>392.32400000000001</v>
       </c>
       <c r="U22">
-        <v>37.558999999999997</v>
+        <v>14.064</v>
       </c>
       <c r="V22">
-        <v>102.185</v>
+        <v>23.100999999999999</v>
       </c>
       <c r="W22">
-        <v>-58.042999999999999</v>
+        <v>-22.614000000000001</v>
       </c>
       <c r="X22">
-        <v>-49.173000000000002</v>
+        <v>-9.2409999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-3.0000000000000001E-3</v>
+        <v>0.108</v>
       </c>
       <c r="AA22">
-        <v>42.987000000000002</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>43.412999999999997</v>
+        <v>5.1260000000000003</v>
       </c>
       <c r="D23">
-        <v>269.01600000000002</v>
+        <v>77.307000000000002</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>158.41800000000001</v>
+        <v>56.198999999999998</v>
       </c>
       <c r="G23">
-        <v>49.826000000000001</v>
+        <v>15.475</v>
       </c>
       <c r="H23">
-        <v>6827.9210000000003</v>
+        <v>1617.2439999999999</v>
       </c>
       <c r="I23">
-        <v>8.2219999999999995</v>
+        <v>2.6629999999999998</v>
       </c>
       <c r="J23">
-        <v>3287.5450000000001</v>
+        <v>1143.617</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-35.494</v>
+        <v>-13.685</v>
       </c>
       <c r="N23">
-        <v>395.73</v>
+        <v>68.444000000000003</v>
       </c>
       <c r="O23">
-        <v>3692.6880000000001</v>
+        <v>1218.932</v>
       </c>
       <c r="P23">
-        <v>3456.22</v>
+        <v>1181.046</v>
       </c>
       <c r="Q23">
-        <v>-9.375</v>
+        <v>-2.9910000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3135.2330000000002</v>
+        <v>398.31200000000001</v>
       </c>
       <c r="U23">
-        <v>28.184000000000001</v>
+        <v>11.073</v>
       </c>
       <c r="V23">
-        <v>104.08499999999999</v>
+        <v>21.408000000000001</v>
       </c>
       <c r="W23">
-        <v>-61.856999999999999</v>
+        <v>-15.135999999999999</v>
       </c>
       <c r="X23">
-        <v>-47.542999999999999</v>
+        <v>35.392000000000003</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.4179999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AA23">
-        <v>43.412999999999997</v>
+        <v>5.1260000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>45.143999999999998</v>
+        <v>5.8920000000000003</v>
       </c>
       <c r="D24">
-        <v>272.23599999999999</v>
+        <v>79.760000000000005</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>160.55000000000001</v>
+        <v>56.878</v>
       </c>
       <c r="G24">
-        <v>51.411000000000001</v>
+        <v>23.28</v>
       </c>
       <c r="H24">
-        <v>6869.3810000000003</v>
+        <v>1630.9190000000001</v>
       </c>
       <c r="I24">
-        <v>7.4640000000000004</v>
+        <v>5.9859999999999998</v>
       </c>
       <c r="J24">
-        <v>3333.59</v>
+        <v>1103.3230000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>406.10300000000001</v>
+        <v>56.91</v>
       </c>
       <c r="O24">
-        <v>3750.0619999999999</v>
+        <v>1167.732</v>
       </c>
       <c r="P24">
-        <v>3501.1849999999999</v>
+        <v>1125.2349999999999</v>
       </c>
       <c r="Q24">
-        <v>-1.905</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3119.319</v>
+        <v>463.18700000000001</v>
       </c>
       <c r="U24">
-        <v>26.279</v>
+        <v>11.366</v>
       </c>
       <c r="V24">
-        <v>134.131</v>
+        <v>39.273000000000003</v>
       </c>
       <c r="W24">
-        <v>-61.917000000000002</v>
+        <v>-18.463999999999999</v>
       </c>
       <c r="X24">
-        <v>-16.57</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.375</v>
+        <v>0.06</v>
       </c>
       <c r="AA24">
-        <v>45.143999999999998</v>
+        <v>5.8920000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>84.278999999999996</v>
+        <v>5.63</v>
       </c>
       <c r="D25">
-        <v>276.89800000000002</v>
+        <v>82.167000000000002</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>161.31100000000001</v>
+        <v>57.308</v>
       </c>
       <c r="G25">
-        <v>58.853999999999999</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="H25">
-        <v>6881.3130000000001</v>
+        <v>1723.4829999999999</v>
       </c>
       <c r="I25">
-        <v>9.08</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="J25">
-        <v>3354.1570000000002</v>
+        <v>1181.0550000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>370.21600000000001</v>
+        <v>72.667000000000002</v>
       </c>
       <c r="O25">
-        <v>3733.7310000000002</v>
+        <v>1261.433</v>
       </c>
       <c r="P25">
-        <v>3443.107</v>
+        <v>1202.2170000000001</v>
       </c>
       <c r="Q25">
-        <v>1.538</v>
+        <v>-3.677</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3147.5819999999999</v>
+        <v>462.05</v>
       </c>
       <c r="U25">
-        <v>27.817</v>
+        <v>7.6890000000000001</v>
       </c>
       <c r="V25">
-        <v>151.006</v>
+        <v>16.741</v>
       </c>
       <c r="W25">
-        <v>-61.93</v>
+        <v>-17.806999999999999</v>
       </c>
       <c r="X25">
-        <v>-118.746</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.03</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AA25">
-        <v>84.278999999999996</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>39.386000000000003</v>
+        <v>4.2969999999999997</v>
       </c>
       <c r="D26">
-        <v>307.19799999999998</v>
+        <v>84.313999999999993</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>187.619</v>
+        <v>59.454000000000001</v>
       </c>
       <c r="G26">
-        <v>124.2</v>
+        <v>17.736999999999998</v>
       </c>
       <c r="H26">
-        <v>11604.491</v>
+        <v>1746.646</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="J26">
-        <v>4499.7120000000004</v>
+        <v>1197.4490000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>452.60500000000002</v>
+        <v>59.591999999999999</v>
       </c>
       <c r="O26">
-        <v>4962.3900000000003</v>
+        <v>1268.3979999999999</v>
       </c>
       <c r="P26">
-        <v>4499.7120000000004</v>
+        <v>1197.4490000000001</v>
       </c>
       <c r="Q26">
-        <v>5.7190000000000003</v>
+        <v>-2.1440000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2466</v>
+        <v>1164</v>
       </c>
       <c r="T26">
-        <v>6642.1009999999997</v>
+        <v>478.24799999999999</v>
       </c>
       <c r="U26">
-        <v>33.536000000000001</v>
+        <v>5.5449999999999999</v>
       </c>
       <c r="V26">
-        <v>94.816999999999993</v>
+        <v>23.483000000000001</v>
       </c>
       <c r="W26">
-        <v>-62.872</v>
+        <v>-18.094999999999999</v>
       </c>
       <c r="X26">
-        <v>405.28399999999999</v>
+        <v>20.831</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.17599999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AA26">
-        <v>39.386000000000003</v>
+        <v>4.2969999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>41.905000000000001</v>
+        <v>11.324</v>
       </c>
       <c r="D27">
-        <v>378.90800000000002</v>
+        <v>90.370999999999995</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>226.654</v>
+        <v>64.745000000000005</v>
       </c>
       <c r="G27">
-        <v>77.412000000000006</v>
+        <v>27.01</v>
       </c>
       <c r="H27">
-        <v>11559.699000000001</v>
+        <v>1733.1130000000001</v>
       </c>
       <c r="I27">
-        <v>13.346</v>
+        <v>1.69</v>
       </c>
       <c r="J27">
-        <v>4293.3379999999997</v>
+        <v>1167.2760000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-93.870999999999995</v>
+        <v>-12.151999999999999</v>
       </c>
       <c r="N27">
-        <v>670.39700000000005</v>
+        <v>71.557000000000002</v>
       </c>
       <c r="O27">
-        <v>4972.8670000000002</v>
+        <v>1250.222</v>
       </c>
       <c r="P27">
-        <v>4562.1850000000004</v>
+        <v>1183.6880000000001</v>
       </c>
       <c r="Q27">
-        <v>-63.301000000000002</v>
+        <v>0.83</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6586.8320000000003</v>
+        <v>482.89100000000002</v>
       </c>
       <c r="U27">
-        <v>33.959000000000003</v>
+        <v>6.375</v>
       </c>
       <c r="V27">
-        <v>132.773</v>
+        <v>20.11</v>
       </c>
       <c r="W27">
-        <v>-99.712999999999994</v>
+        <v>-18.667000000000002</v>
       </c>
       <c r="X27">
-        <v>-46.918999999999997</v>
+        <v>-18.285</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>9.8550000000000004</v>
       </c>
       <c r="AA27">
-        <v>41.905000000000001</v>
+        <v>11.324</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>48.314999999999998</v>
+        <v>9.1180000000000003</v>
       </c>
       <c r="D28">
-        <v>382.791</v>
+        <v>83.283000000000001</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>226.077</v>
+        <v>58.228000000000002</v>
       </c>
       <c r="G28">
-        <v>114.864</v>
+        <v>17.013999999999999</v>
       </c>
       <c r="H28">
-        <v>11534.129000000001</v>
+        <v>1761.1079999999999</v>
       </c>
       <c r="I28">
-        <v>13.932</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="J28">
-        <v>4309.9870000000001</v>
+        <v>1193.3440000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>681.49199999999996</v>
+        <v>66.754999999999995</v>
       </c>
       <c r="O28">
-        <v>5001.8869999999997</v>
+        <v>1271.58</v>
       </c>
       <c r="P28">
-        <v>4576.6779999999999</v>
+        <v>1195.57</v>
       </c>
       <c r="Q28">
-        <v>9.0190000000000001</v>
+        <v>-2.0830000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6532.2420000000002</v>
+        <v>489.52800000000002</v>
       </c>
       <c r="U28">
-        <v>39.658999999999999</v>
+        <v>4.2919999999999998</v>
       </c>
       <c r="V28">
-        <v>188.45</v>
+        <v>38.744</v>
       </c>
       <c r="W28">
-        <v>-99.733000000000004</v>
+        <v>-18.88</v>
       </c>
       <c r="X28">
-        <v>-80.947999999999993</v>
+        <v>-1.55</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="AA28">
-        <v>48.314999999999998</v>
+        <v>9.1180000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>114.709</v>
+        <v>11.9</v>
       </c>
       <c r="D29">
-        <v>384.55</v>
+        <v>88.424000000000007</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>225.09</v>
+        <v>62.603999999999999</v>
       </c>
       <c r="G29">
-        <v>153.65199999999999</v>
+        <v>9.1359999999999992</v>
       </c>
       <c r="H29">
-        <v>11532.800999999999</v>
+        <v>1789.9970000000001</v>
       </c>
       <c r="I29">
-        <v>17.274999999999999</v>
+        <v>1.931</v>
       </c>
       <c r="J29">
-        <v>4394.8379999999997</v>
+        <v>1234.4929999999999</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>576.53300000000002</v>
+        <v>87.91</v>
       </c>
       <c r="O29">
-        <v>4982.1750000000002</v>
+        <v>1333.8579999999999</v>
       </c>
       <c r="P29">
-        <v>4495.4359999999997</v>
+        <v>1247.5450000000001</v>
       </c>
       <c r="Q29">
-        <v>60.585999999999999</v>
+        <v>-0.251</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6550.6260000000002</v>
+        <v>456.13900000000001</v>
       </c>
       <c r="U29">
-        <v>47.850999999999999</v>
+        <v>4.0410000000000004</v>
       </c>
       <c r="V29">
-        <v>236.233</v>
+        <v>30.28</v>
       </c>
       <c r="W29">
-        <v>-99.760999999999996</v>
+        <v>-18.821999999999999</v>
       </c>
       <c r="X29">
-        <v>-180.19499999999999</v>
+        <v>21.359000000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.75</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="AA29">
-        <v>114.709</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>123.45</v>
+        <v>7.6040000000000001</v>
       </c>
       <c r="D30">
-        <v>382.738</v>
+        <v>90.597999999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>230.84700000000001</v>
+        <v>65.039000000000001</v>
       </c>
       <c r="G30">
-        <v>118.988</v>
+        <v>20.916</v>
       </c>
       <c r="H30">
-        <v>11491.919</v>
+        <v>1783.8219999999999</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.099</v>
       </c>
       <c r="J30">
-        <v>4502.0569999999998</v>
+        <v>1280.6590000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>405.56</v>
+        <v>62.082000000000001</v>
       </c>
       <c r="O30">
-        <v>4918.0249999999996</v>
+        <v>1353.998</v>
       </c>
       <c r="P30">
-        <v>4503.357</v>
+        <v>1280.6590000000001</v>
       </c>
       <c r="Q30">
-        <v>-39.237000000000002</v>
+        <v>13.151</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2419</v>
+        <v>1170</v>
       </c>
       <c r="T30">
-        <v>6573.8940000000002</v>
+        <v>429.82400000000001</v>
       </c>
       <c r="U30">
-        <v>10.75</v>
+        <v>17.192</v>
       </c>
       <c r="V30">
-        <v>103.34399999999999</v>
+        <v>29.443000000000001</v>
       </c>
       <c r="W30">
-        <v>-99.775000000000006</v>
+        <v>-18.667000000000002</v>
       </c>
       <c r="X30">
-        <v>-91.460999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-0.75</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="AA30">
-        <v>123.45</v>
+        <v>7.6040000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>49.018999999999998</v>
+        <v>7.6790000000000003</v>
       </c>
       <c r="D31">
-        <v>386.017</v>
+        <v>90.665999999999997</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>228.733</v>
+        <v>64.777000000000001</v>
       </c>
       <c r="G31">
-        <v>112.41</v>
+        <v>10.58</v>
       </c>
       <c r="H31">
-        <v>11417.376</v>
+        <v>1799.884</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.569</v>
       </c>
       <c r="J31">
-        <v>4118.6930000000002</v>
+        <v>1173.652</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-151.042</v>
+        <v>-22.838000000000001</v>
       </c>
       <c r="N31">
-        <v>770.53800000000001</v>
+        <v>160.46799999999999</v>
       </c>
       <c r="O31">
-        <v>4897.0129999999999</v>
+        <v>1386.6659999999999</v>
       </c>
       <c r="P31">
-        <v>4500.451</v>
+        <v>1271.7729999999999</v>
       </c>
       <c r="Q31">
-        <v>-6.7569999999999997</v>
+        <v>-10.132999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6520.3630000000003</v>
+        <v>413.21800000000002</v>
       </c>
       <c r="U31">
-        <v>59.706000000000003</v>
+        <v>7.0590000000000002</v>
       </c>
       <c r="V31">
-        <v>152.70400000000001</v>
+        <v>31.187999999999999</v>
       </c>
       <c r="W31">
-        <v>-105.798</v>
+        <v>-18.890999999999998</v>
       </c>
       <c r="X31">
-        <v>-112.79600000000001</v>
+        <v>4.4390000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.75</v>
+        <v>-6.7759999999999998</v>
       </c>
       <c r="AA31">
-        <v>49.018999999999998</v>
+        <v>7.6790000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>59.807000000000002</v>
+        <v>8.6440000000000001</v>
       </c>
       <c r="D32">
-        <v>390.07299999999998</v>
+        <v>91.236999999999995</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>229.947</v>
+        <v>53.228000000000002</v>
       </c>
       <c r="G32">
-        <v>90.052999999999997</v>
+        <v>13.81</v>
       </c>
       <c r="H32">
-        <v>11447.129000000001</v>
+        <v>1841.3630000000001</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1.552</v>
       </c>
       <c r="J32">
-        <v>4168.5919999999996</v>
+        <v>1182.7</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>789.64700000000005</v>
+        <v>133.81100000000001</v>
       </c>
       <c r="O32">
-        <v>4967.6490000000003</v>
+        <v>1341.9670000000001</v>
       </c>
       <c r="P32">
-        <v>4549.1350000000002</v>
+        <v>1243.827</v>
       </c>
       <c r="Q32">
-        <v>-21.306999999999999</v>
+        <v>2.9180000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6479.48</v>
+        <v>499.39600000000002</v>
       </c>
       <c r="U32">
-        <v>32.61</v>
+        <v>9.9770000000000003</v>
       </c>
       <c r="V32">
-        <v>211.30099999999999</v>
+        <v>39.405000000000001</v>
       </c>
       <c r="W32">
-        <v>-105.889</v>
+        <v>-19.3</v>
       </c>
       <c r="X32">
-        <v>-57.911000000000001</v>
+        <v>21.946000000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="AA32">
-        <v>59.807000000000002</v>
+        <v>8.6440000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>52.790999999999997</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="D33">
-        <v>397.108</v>
+        <v>93.518000000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>231.065</v>
+        <v>53.360999999999997</v>
       </c>
       <c r="G33">
-        <v>120.1</v>
+        <v>77.308999999999997</v>
       </c>
       <c r="H33">
-        <v>11418.986999999999</v>
+        <v>1975.0350000000001</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2.395</v>
       </c>
       <c r="J33">
-        <v>4424.0230000000001</v>
+        <v>1355.704</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>553.803</v>
+        <v>80.641999999999996</v>
       </c>
       <c r="O33">
-        <v>4987.433</v>
+        <v>1467.21</v>
       </c>
       <c r="P33">
-        <v>4504.0230000000001</v>
+        <v>1356.2</v>
       </c>
       <c r="Q33">
-        <v>18.597000000000001</v>
+        <v>33.692</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6431.5540000000001</v>
+        <v>507.82499999999999</v>
       </c>
       <c r="U33">
-        <v>46.139000000000003</v>
+        <v>43.668999999999997</v>
       </c>
       <c r="V33">
-        <v>237.05099999999999</v>
+        <v>35.912999999999997</v>
       </c>
       <c r="W33">
-        <v>-105.913</v>
+        <v>-20.027999999999999</v>
       </c>
       <c r="X33">
-        <v>-152.05799999999999</v>
+        <v>118.61499999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.75</v>
+        <v>-0.439</v>
       </c>
       <c r="AA33">
-        <v>52.790999999999997</v>
+        <v>6.1929999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>61.281999999999996</v>
+        <v>7.7329999999999997</v>
       </c>
       <c r="D34">
-        <v>398.14800000000002</v>
+        <v>93.745999999999995</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>239.38</v>
+        <v>36.835000000000001</v>
       </c>
       <c r="G34">
-        <v>73.972999999999999</v>
+        <v>33.997</v>
       </c>
       <c r="H34">
-        <v>11323.781000000001</v>
+        <v>1921.9549999999999</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.234</v>
       </c>
       <c r="J34">
-        <v>4528.3280000000004</v>
+        <v>1324.5350000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>413.85</v>
+        <v>143.452</v>
       </c>
       <c r="O34">
-        <v>4951.5919999999996</v>
+        <v>1479.338</v>
       </c>
       <c r="P34">
-        <v>4533.6279999999997</v>
+        <v>1401.4960000000001</v>
       </c>
       <c r="Q34">
-        <v>-27.727</v>
+        <v>-34.243000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2508</v>
+        <v>1173</v>
       </c>
       <c r="T34">
-        <v>6372.1890000000003</v>
+        <v>442.61700000000002</v>
       </c>
       <c r="U34">
-        <v>34.259</v>
+        <v>9.4260000000000002</v>
       </c>
       <c r="V34">
-        <v>133.23599999999999</v>
+        <v>31.422999999999998</v>
       </c>
       <c r="W34">
-        <v>-105.937</v>
+        <v>-20.454999999999998</v>
       </c>
       <c r="X34">
-        <v>-82.370999999999995</v>
+        <v>-47.652000000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-0.63</v>
+        <v>-0.215</v>
       </c>
       <c r="AA34">
-        <v>61.281999999999996</v>
+        <v>7.7329999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>63.66</v>
+        <v>11.138999999999999</v>
       </c>
       <c r="D35">
-        <v>401.178</v>
+        <v>93.468000000000004</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>237.959</v>
+        <v>50.932000000000002</v>
       </c>
       <c r="G35">
-        <v>79.986999999999995</v>
+        <v>62.808</v>
       </c>
       <c r="H35">
-        <v>11303.762000000001</v>
+        <v>1939.8150000000001</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.448</v>
       </c>
       <c r="J35">
-        <v>4214.92</v>
+        <v>1385.789</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,84 +3628,84 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-611.84699999999998</v>
+        <v>-0.53500000000000003</v>
       </c>
       <c r="N35">
-        <v>718.94100000000003</v>
+        <v>104.56</v>
       </c>
       <c r="O35">
-        <v>4978.4629999999997</v>
+        <v>1501.259</v>
       </c>
       <c r="P35">
-        <v>4581.6549999999997</v>
+        <v>1425.521</v>
       </c>
       <c r="Q35">
-        <v>7.7140000000000004</v>
+        <v>38.24</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6325.299</v>
+        <v>438.55599999999998</v>
       </c>
       <c r="U35">
-        <v>44.622999999999998</v>
+        <v>47.665999999999997</v>
       </c>
       <c r="V35">
-        <v>154.678</v>
+        <v>31.986999999999998</v>
       </c>
       <c r="W35">
-        <v>-110.246</v>
+        <v>-20.483000000000001</v>
       </c>
       <c r="X35">
-        <v>-94.08</v>
+        <v>9.1639999999999997</v>
       </c>
       <c r="Y35">
-        <v>33.557000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>4.2999999999999997E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="AA35">
-        <v>63.66</v>
+        <v>11.138999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>61.917000000000002</v>
+        <v>10.148</v>
       </c>
       <c r="D36">
-        <v>407.39</v>
+        <v>94.406000000000006</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>239.79400000000001</v>
+        <v>50.981000000000002</v>
       </c>
       <c r="G36">
-        <v>81.483999999999995</v>
+        <v>21.212</v>
       </c>
       <c r="H36">
-        <v>11274.83</v>
+        <v>1904.134</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="J36">
-        <v>4139.7340000000004</v>
+        <v>1380.421</v>
       </c>
       <c r="K36">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>850.46699999999998</v>
+        <v>66.766000000000005</v>
       </c>
       <c r="O36">
-        <v>5002.3040000000001</v>
+        <v>1458.502</v>
       </c>
       <c r="P36">
-        <v>4577.9889999999996</v>
+        <v>1381.299</v>
       </c>
       <c r="Q36">
-        <v>-1.7030000000000001</v>
+        <v>-41.585999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6272.5259999999998</v>
+        <v>445.63200000000001</v>
       </c>
       <c r="U36">
-        <v>40.972000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="V36">
-        <v>213.78899999999999</v>
+        <v>41.947000000000003</v>
       </c>
       <c r="W36">
-        <v>-110.35599999999999</v>
+        <v>-20.492999999999999</v>
       </c>
       <c r="X36">
-        <v>-127.55</v>
+        <v>-53.494</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-2.5590000000000002</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="AA36">
-        <v>61.917000000000002</v>
+        <v>10.148</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>78.644999999999996</v>
+        <v>6.6180000000000003</v>
       </c>
       <c r="D37">
-        <v>415.63200000000001</v>
+        <v>94.710999999999999</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>242.19399999999999</v>
+        <v>48.567</v>
       </c>
       <c r="G37">
-        <v>103.902</v>
+        <v>30.783000000000001</v>
       </c>
       <c r="H37">
-        <v>11247.754000000001</v>
+        <v>1911.8720000000001</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.175</v>
       </c>
       <c r="J37">
-        <v>4256.1170000000002</v>
+        <v>1376.655</v>
       </c>
       <c r="K37">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>709.09400000000005</v>
+        <v>74.117000000000004</v>
       </c>
       <c r="O37">
-        <v>5011.1440000000002</v>
+        <v>1462.357</v>
       </c>
       <c r="P37">
-        <v>4519.5709999999999</v>
+        <v>1377.1790000000001</v>
       </c>
       <c r="Q37">
-        <v>-15.002000000000001</v>
+        <v>10.409000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6236.61</v>
+        <v>449.51499999999999</v>
       </c>
       <c r="U37">
-        <v>25.826000000000001</v>
+        <v>16.489000000000001</v>
       </c>
       <c r="V37">
-        <v>253.071</v>
+        <v>37.152000000000001</v>
       </c>
       <c r="W37">
-        <v>-110.40300000000001</v>
+        <v>-20.509</v>
       </c>
       <c r="X37">
-        <v>-178.21799999999999</v>
+        <v>-7.8250000000000002</v>
       </c>
       <c r="Y37">
-        <v>32.277000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.619</v>
+        <v>-2.5209999999999999</v>
       </c>
       <c r="AA37">
-        <v>78.644999999999996</v>
+        <v>6.6180000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>149.589</v>
+        <v>9.3059999999999992</v>
       </c>
       <c r="D38">
-        <v>416.81700000000001</v>
+        <v>95.143000000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>253.214</v>
+        <v>50.323</v>
       </c>
       <c r="G38">
-        <v>107.14100000000001</v>
+        <v>17.829000000000001</v>
       </c>
       <c r="H38">
-        <v>11230.45</v>
+        <v>1986.826</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.702</v>
       </c>
       <c r="J38">
-        <v>4454.598</v>
+        <v>1399.596</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>439.16199999999998</v>
+        <v>122.39</v>
       </c>
       <c r="O38">
-        <v>4940.991</v>
+        <v>1533.6</v>
       </c>
       <c r="P38">
-        <v>4487.6980000000003</v>
+        <v>1450.7560000000001</v>
       </c>
       <c r="Q38">
-        <v>27.859000000000002</v>
+        <v>-2.67</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>2476</v>
+        <v>1204</v>
       </c>
       <c r="T38">
-        <v>6289.4589999999998</v>
+        <v>453.226</v>
       </c>
       <c r="U38">
-        <v>20.475999999999999</v>
+        <v>13.819000000000001</v>
       </c>
       <c r="V38">
-        <v>159.88200000000001</v>
+        <v>29.199000000000002</v>
       </c>
       <c r="W38">
-        <v>-110.426</v>
+        <v>-20.885000000000002</v>
       </c>
       <c r="X38">
-        <v>-124.431</v>
+        <v>70.224000000000004</v>
       </c>
       <c r="Y38">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.749</v>
+        <v>0.01</v>
       </c>
       <c r="AA38">
-        <v>149.589</v>
+        <v>9.3059999999999992</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>36.648000000000003</v>
+        <v>9.4120000000000008</v>
       </c>
       <c r="D39">
-        <v>418.09800000000001</v>
+        <v>97.188000000000002</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>250.28299999999999</v>
+        <v>51.36</v>
       </c>
       <c r="G39">
-        <v>57.947000000000003</v>
+        <v>37.848999999999997</v>
       </c>
       <c r="H39">
-        <v>11155.977000000001</v>
+        <v>1955.991</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="J39">
-        <v>4346.8639999999996</v>
+        <v>1357.269</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-31.74</v>
+        <v>-60.273000000000003</v>
       </c>
       <c r="N39">
-        <v>551.58799999999997</v>
+        <v>120.66800000000001</v>
       </c>
       <c r="O39">
-        <v>4940.4120000000003</v>
+        <v>1489.5840000000001</v>
       </c>
       <c r="P39">
-        <v>4516.5069999999996</v>
+        <v>1411.424</v>
       </c>
       <c r="Q39">
-        <v>-21.494</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6215.5649999999996</v>
+        <v>466.40699999999998</v>
       </c>
       <c r="U39">
-        <v>34.508000000000003</v>
+        <v>32.329000000000001</v>
       </c>
       <c r="V39">
-        <v>160.602</v>
+        <v>25.132999999999999</v>
       </c>
       <c r="W39">
-        <v>-115.19199999999999</v>
+        <v>-21.102</v>
       </c>
       <c r="X39">
-        <v>-92.106999999999999</v>
+        <v>-38.122999999999998</v>
       </c>
       <c r="Y39">
-        <v>30.693000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-0.9</v>
+        <v>-5.7350000000000003</v>
       </c>
       <c r="AA39">
-        <v>36.648000000000003</v>
+        <v>9.4120000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>75.061999999999998</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>413.02600000000001</v>
+        <v>98.096999999999994</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>243.82499999999999</v>
+        <v>51.244</v>
       </c>
       <c r="G40">
-        <v>56.094000000000001</v>
+        <v>29.244</v>
       </c>
       <c r="H40">
-        <v>11131.313</v>
+        <v>1998.0440000000001</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="J40">
-        <v>4246.7719999999999</v>
+        <v>1362.269</v>
       </c>
       <c r="K40">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>668.53800000000001</v>
+        <v>126.879</v>
       </c>
       <c r="O40">
-        <v>4959.7359999999999</v>
+        <v>1500.14</v>
       </c>
       <c r="P40">
-        <v>4505.116</v>
+        <v>1420.057</v>
       </c>
       <c r="Q40">
-        <v>-13.452999999999999</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>6171.5770000000002</v>
+        <v>497.904</v>
       </c>
       <c r="U40">
-        <v>19.667000000000002</v>
+        <v>25.245000000000001</v>
       </c>
       <c r="V40">
-        <v>229.01300000000001</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-115.27</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-134.62</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>31.093</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-0.74099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>75.061999999999998</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>59.91</v>
+        <v>6.7489999999999997</v>
       </c>
       <c r="D41">
-        <v>423.19900000000001</v>
+        <v>100.599</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>240.69399999999999</v>
+        <v>51.170999999999999</v>
       </c>
       <c r="G41">
-        <v>49.488999999999997</v>
+        <v>123.45</v>
       </c>
       <c r="H41">
-        <v>11128.704</v>
+        <v>2189.8510000000001</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="J41">
-        <v>4390.5940000000001</v>
+        <v>1550.3009999999999</v>
       </c>
       <c r="K41">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>573.54</v>
+        <v>143.101</v>
       </c>
       <c r="O41">
-        <v>5009.4489999999996</v>
+        <v>1704.3679999999999</v>
       </c>
       <c r="P41">
-        <v>4457.7749999999996</v>
+        <v>1611.2729999999999</v>
       </c>
       <c r="Q41">
-        <v>-8.0050000000000008</v>
+        <v>74.846000000000004</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6119.2550000000001</v>
+        <v>485.483</v>
       </c>
       <c r="U41">
-        <v>18.407</v>
+        <v>100.09099999999999</v>
       </c>
       <c r="V41">
-        <v>254.27</v>
+        <v>39.752000000000002</v>
       </c>
       <c r="W41">
-        <v>-115.28700000000001</v>
+        <v>-21.129000000000001</v>
       </c>
       <c r="X41">
-        <v>-166.958</v>
+        <v>171.73599999999999</v>
       </c>
       <c r="Y41">
-        <v>31.474</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1.6020000000000001</v>
+        <v>-3.6070000000000002</v>
       </c>
       <c r="AA41">
-        <v>59.91</v>
+        <v>6.7489999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>6.94</v>
+      </c>
+      <c r="D42">
+        <v>101.456</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>52.875999999999998</v>
+      </c>
+      <c r="G42">
+        <v>51.097000000000001</v>
+      </c>
+      <c r="H42">
+        <v>2176.0479999999998</v>
+      </c>
+      <c r="I42">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="J42">
+        <v>1500.193</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>131.32</v>
+      </c>
+      <c r="O42">
+        <v>1635.42</v>
+      </c>
+      <c r="P42">
+        <v>1549.1289999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-54.149000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1315</v>
+      </c>
+      <c r="T42">
+        <v>540.62800000000004</v>
+      </c>
+      <c r="U42">
+        <v>45.942</v>
+      </c>
+      <c r="V42">
+        <v>27.126000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-20.963000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-15.268000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-2.2629999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>8.8439999999999994</v>
+      </c>
+      <c r="D43">
+        <v>103.318</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>54.512999999999998</v>
+      </c>
+      <c r="G43">
+        <v>52.228999999999999</v>
+      </c>
+      <c r="H43">
+        <v>2201.7469999999998</v>
+      </c>
+      <c r="I43">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="J43">
+        <v>1268.818</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-70.671000000000006</v>
+      </c>
+      <c r="N43">
+        <v>299.35399999999998</v>
+      </c>
+      <c r="O43">
+        <v>1578.479</v>
+      </c>
+      <c r="P43">
+        <v>1493.2249999999999</v>
+      </c>
+      <c r="Q43">
+        <v>1.28</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>623.26800000000003</v>
+      </c>
+      <c r="U43">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="V43">
+        <v>31.302</v>
+      </c>
+      <c r="W43">
+        <v>-22.076000000000001</v>
+      </c>
+      <c r="X43">
+        <v>17.265000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-1.0069999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>8.8439999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>7.4279999999999999</v>
+      </c>
+      <c r="D44">
+        <v>102.673</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>52.356000000000002</v>
+      </c>
+      <c r="G44">
+        <v>22.765000000000001</v>
+      </c>
+      <c r="H44">
+        <v>2313.5210000000002</v>
+      </c>
+      <c r="I44">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="J44">
+        <v>1454.001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>208.47399999999999</v>
+      </c>
+      <c r="O44">
+        <v>1673.221</v>
+      </c>
+      <c r="P44">
+        <v>1577.02</v>
+      </c>
+      <c r="Q44">
+        <v>-34.384</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>640.29999999999995</v>
+      </c>
+      <c r="U44">
+        <v>12.837999999999999</v>
+      </c>
+      <c r="V44">
+        <v>52.249000000000002</v>
+      </c>
+      <c r="W44">
+        <v>-22.988</v>
+      </c>
+      <c r="X44">
+        <v>92.65</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AA44">
+        <v>7.4279999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>13.791</v>
+      </c>
+      <c r="D45">
+        <v>110.214</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>56.735999999999997</v>
+      </c>
+      <c r="G45">
+        <v>38.247999999999998</v>
+      </c>
+      <c r="H45">
+        <v>2412.027</v>
+      </c>
+      <c r="I45">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="J45">
+        <v>1586.82</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>136.69200000000001</v>
+      </c>
+      <c r="O45">
+        <v>1733.7280000000001</v>
+      </c>
+      <c r="P45">
+        <v>1627.0450000000001</v>
+      </c>
+      <c r="Q45">
+        <v>11.416</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>678.29899999999998</v>
+      </c>
+      <c r="U45">
+        <v>24.254000000000001</v>
+      </c>
+      <c r="V45">
+        <v>45.66</v>
+      </c>
+      <c r="W45">
+        <v>-23.266999999999999</v>
+      </c>
+      <c r="X45">
+        <v>60.371000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.316</v>
+      </c>
+      <c r="AA45">
+        <v>13.791</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>18.757999999999999</v>
+      </c>
+      <c r="D46">
+        <v>114.008</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>60.012</v>
+      </c>
+      <c r="G46">
+        <v>59.697000000000003</v>
+      </c>
+      <c r="H46">
+        <v>2530.4679999999998</v>
+      </c>
+      <c r="I46">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="J46">
+        <v>1649.7550000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>133.136</v>
+      </c>
+      <c r="O46">
+        <v>1787.0060000000001</v>
+      </c>
+      <c r="P46">
+        <v>1682.85</v>
+      </c>
+      <c r="Q46">
+        <v>33.063000000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1399</v>
+      </c>
+      <c r="T46">
+        <v>743.46199999999999</v>
+      </c>
+      <c r="U46">
+        <v>57.317</v>
+      </c>
+      <c r="V46">
+        <v>43.076999999999998</v>
+      </c>
+      <c r="W46">
+        <v>-23.696999999999999</v>
+      </c>
+      <c r="X46">
+        <v>110.961</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.121</v>
+      </c>
+      <c r="AA46">
+        <v>18.757999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>23.89</v>
+      </c>
+      <c r="D47">
+        <v>113.276</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>61.478000000000002</v>
+      </c>
+      <c r="G47">
+        <v>65.933000000000007</v>
+      </c>
+      <c r="H47">
+        <v>2527.41</v>
+      </c>
+      <c r="I47">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="J47">
+        <v>1540.056</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-159.60900000000001</v>
+      </c>
+      <c r="N47">
+        <v>119.19</v>
+      </c>
+      <c r="O47">
+        <v>1663.692</v>
+      </c>
+      <c r="P47">
+        <v>1569.4159999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-15.491</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>863.71799999999996</v>
+      </c>
+      <c r="U47">
+        <v>41.826000000000001</v>
+      </c>
+      <c r="V47">
+        <v>37.911000000000001</v>
+      </c>
+      <c r="W47">
+        <v>-25.722999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-19.289000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AA47">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>28.16</v>
+      </c>
+      <c r="D48">
+        <v>116.43</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>62.198</v>
+      </c>
+      <c r="G48">
+        <v>32.286999999999999</v>
+      </c>
+      <c r="H48">
+        <v>2599.0880000000002</v>
+      </c>
+      <c r="I48">
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="J48">
+        <v>1589.421</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>139.00700000000001</v>
+      </c>
+      <c r="O48">
+        <v>1733.125</v>
+      </c>
+      <c r="P48">
+        <v>1617.069</v>
+      </c>
+      <c r="Q48">
+        <v>-19.484999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>865.96299999999997</v>
+      </c>
+      <c r="U48">
+        <v>22.341000000000001</v>
+      </c>
+      <c r="V48">
+        <v>62.953000000000003</v>
+      </c>
+      <c r="W48">
+        <v>-27.009</v>
+      </c>
+      <c r="X48">
+        <v>-3.3119999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>10.298</v>
+      </c>
+      <c r="AA48">
+        <v>28.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>30.866</v>
+      </c>
+      <c r="D49">
+        <v>123.11799999999999</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>65.025999999999996</v>
+      </c>
+      <c r="G49">
+        <v>25.207999999999998</v>
+      </c>
+      <c r="H49">
+        <v>2775.835</v>
+      </c>
+      <c r="I49">
+        <v>5.6369999999999996</v>
+      </c>
+      <c r="J49">
+        <v>1705.11</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>140.72</v>
+      </c>
+      <c r="O49">
+        <v>1850.463</v>
+      </c>
+      <c r="P49">
+        <v>1732.0740000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-8.9190000000000005</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>925.37199999999996</v>
+      </c>
+      <c r="U49">
+        <v>13.422000000000001</v>
+      </c>
+      <c r="V49">
+        <v>57.156999999999996</v>
+      </c>
+      <c r="W49">
+        <v>-27.123000000000001</v>
+      </c>
+      <c r="X49">
+        <v>131.667</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.97</v>
+      </c>
+      <c r="AA49">
+        <v>30.866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>22.306999999999999</v>
+      </c>
+      <c r="D50">
+        <v>123.06399999999999</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>70.174999999999997</v>
+      </c>
+      <c r="G50">
+        <v>10.170999999999999</v>
+      </c>
+      <c r="H50">
+        <v>2751.0680000000002</v>
+      </c>
+      <c r="I50">
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="J50">
+        <v>1673.848</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>127.39700000000001</v>
+      </c>
+      <c r="O50">
+        <v>1805.9580000000001</v>
+      </c>
+      <c r="P50">
+        <v>1695.271</v>
+      </c>
+      <c r="Q50">
+        <v>-4.3470000000000004</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1384</v>
+      </c>
+      <c r="T50">
+        <v>945.11</v>
+      </c>
+      <c r="U50">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="V50">
+        <v>52.945999999999998</v>
+      </c>
+      <c r="W50">
+        <v>-27.893999999999998</v>
+      </c>
+      <c r="X50">
+        <v>-39.052</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.27</v>
+      </c>
+      <c r="AA50">
+        <v>22.306999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>21.18</v>
+      </c>
+      <c r="D51">
+        <v>127.92</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>72.281000000000006</v>
+      </c>
+      <c r="G51">
+        <v>9.1470000000000002</v>
+      </c>
+      <c r="H51">
+        <v>2775.0079999999998</v>
+      </c>
+      <c r="I51">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="J51">
+        <v>1686.145</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1.37</v>
+      </c>
+      <c r="N51">
+        <v>121.35899999999999</v>
+      </c>
+      <c r="O51">
+        <v>1812.6949999999999</v>
+      </c>
+      <c r="P51">
+        <v>1708.566</v>
+      </c>
+      <c r="Q51">
+        <v>-0.85099999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>962.31299999999999</v>
+      </c>
+      <c r="U51">
+        <v>8.2240000000000002</v>
+      </c>
+      <c r="V51">
+        <v>42.116999999999997</v>
+      </c>
+      <c r="W51">
+        <v>-29.417999999999999</v>
+      </c>
+      <c r="X51">
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>4.9480000000000004</v>
+      </c>
+      <c r="AA51">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>59.088999999999999</v>
+      </c>
+      <c r="D52">
+        <v>131.80099999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>73.268000000000001</v>
+      </c>
+      <c r="G52">
+        <v>38.35</v>
+      </c>
+      <c r="H52">
+        <v>2834.2170000000001</v>
+      </c>
+      <c r="I52">
+        <v>10.085000000000001</v>
+      </c>
+      <c r="J52">
+        <v>1687.721</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>129.178</v>
+      </c>
+      <c r="O52">
+        <v>1822.42</v>
+      </c>
+      <c r="P52">
+        <v>1703.4480000000001</v>
+      </c>
+      <c r="Q52">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1011.797</v>
+      </c>
+      <c r="U52">
+        <v>8.7919999999999998</v>
+      </c>
+      <c r="V52">
+        <v>67.265000000000001</v>
+      </c>
+      <c r="W52">
+        <v>-29.696999999999999</v>
+      </c>
+      <c r="X52">
+        <v>-46.709000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="AA52">
+        <v>59.088999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>44.283999999999999</v>
+      </c>
+      <c r="D53">
+        <v>135.40600000000001</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>74.742999999999995</v>
+      </c>
+      <c r="G53">
+        <v>250.422</v>
+      </c>
+      <c r="H53">
+        <v>3028.2570000000001</v>
+      </c>
+      <c r="I53">
+        <v>6.9630000000000001</v>
+      </c>
+      <c r="J53">
+        <v>1609.559</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>383.63799999999998</v>
+      </c>
+      <c r="O53">
+        <v>1998.2360000000001</v>
+      </c>
+      <c r="P53">
+        <v>1870.06</v>
+      </c>
+      <c r="Q53">
+        <v>172.31299999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1030.021</v>
+      </c>
+      <c r="U53">
+        <v>181.10499999999999</v>
+      </c>
+      <c r="V53">
+        <v>59.395000000000003</v>
+      </c>
+      <c r="W53">
+        <v>-29.699000000000002</v>
+      </c>
+      <c r="X53">
+        <v>136.054</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.114</v>
+      </c>
+      <c r="AA53">
+        <v>44.283999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-9.2720000000000002</v>
+      </c>
+      <c r="D54">
+        <v>239.607</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>136.65199999999999</v>
+      </c>
+      <c r="G54">
+        <v>172.9</v>
+      </c>
+      <c r="H54">
+        <v>6841.9250000000002</v>
+      </c>
+      <c r="I54">
+        <v>15.067</v>
+      </c>
+      <c r="J54">
+        <v>3472.7179999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>250.62</v>
+      </c>
+      <c r="O54">
+        <v>3728.3879999999999</v>
+      </c>
+      <c r="P54">
+        <v>3492.7330000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-91.772000000000006</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2151</v>
+      </c>
+      <c r="T54">
+        <v>3113.5369999999998</v>
+      </c>
+      <c r="U54">
+        <v>89.332999999999998</v>
+      </c>
+      <c r="V54">
+        <v>89.602999999999994</v>
+      </c>
+      <c r="W54">
+        <v>-51.883000000000003</v>
+      </c>
+      <c r="X54">
+        <v>-191.952</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>-9.2720000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>14.866</v>
+      </c>
+      <c r="D55">
+        <v>243.48699999999999</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>139.102</v>
+      </c>
+      <c r="G55">
+        <v>194.43600000000001</v>
+      </c>
+      <c r="H55">
+        <v>6785.6629999999996</v>
+      </c>
+      <c r="I55">
+        <v>15.173999999999999</v>
+      </c>
+      <c r="J55">
+        <v>3042.3589999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-35.921999999999997</v>
+      </c>
+      <c r="N55">
+        <v>661.33</v>
+      </c>
+      <c r="O55">
+        <v>3708.5169999999998</v>
+      </c>
+      <c r="P55">
+        <v>3480.9960000000001</v>
+      </c>
+      <c r="Q55">
+        <v>32.634999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3077.1460000000002</v>
+      </c>
+      <c r="U55">
+        <v>121.901</v>
+      </c>
+      <c r="V55">
+        <v>96.061000000000007</v>
+      </c>
+      <c r="W55">
+        <v>-54.661000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-91.753</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="AA55">
+        <v>14.866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>31.613</v>
+      </c>
+      <c r="D56">
+        <v>245.30500000000001</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>136.881</v>
+      </c>
+      <c r="G56">
+        <v>125.292</v>
+      </c>
+      <c r="H56">
+        <v>6783.1210000000001</v>
+      </c>
+      <c r="I56">
+        <v>15.297000000000001</v>
+      </c>
+      <c r="J56">
+        <v>3470.03</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>250.482</v>
+      </c>
+      <c r="O56">
+        <v>3725.9189999999999</v>
+      </c>
+      <c r="P56">
+        <v>3493.41</v>
+      </c>
+      <c r="Q56">
+        <v>-95.882999999999996</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3057.2020000000002</v>
+      </c>
+      <c r="U56">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="V56">
+        <v>92.299000000000007</v>
+      </c>
+      <c r="W56">
+        <v>-54.753</v>
+      </c>
+      <c r="X56">
+        <v>-33.386000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>31.613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>66.975999999999999</v>
+      </c>
+      <c r="D57">
+        <v>249.57400000000001</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>141.25</v>
+      </c>
+      <c r="G57">
+        <v>183.417</v>
+      </c>
+      <c r="H57">
+        <v>6783.0140000000001</v>
+      </c>
+      <c r="I57">
+        <v>10.089</v>
+      </c>
+      <c r="J57">
+        <v>3427.069</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>274.98500000000001</v>
+      </c>
+      <c r="O57">
+        <v>3707.0819999999999</v>
+      </c>
+      <c r="P57">
+        <v>3443.1460000000002</v>
+      </c>
+      <c r="Q57">
+        <v>62.204000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3075.9319999999998</v>
+      </c>
+      <c r="U57">
+        <v>87.766000000000005</v>
+      </c>
+      <c r="V57">
+        <v>108.98</v>
+      </c>
+      <c r="W57">
+        <v>-54.884</v>
+      </c>
+      <c r="X57">
+        <v>-118.111</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>4.423</v>
+      </c>
+      <c r="AA57">
+        <v>66.975999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>34.524999999999999</v>
+      </c>
+      <c r="D58">
+        <v>253.21899999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>146.786</v>
+      </c>
+      <c r="G58">
+        <v>54.911999999999999</v>
+      </c>
+      <c r="H58">
+        <v>6821.7780000000002</v>
+      </c>
+      <c r="I58">
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="J58">
+        <v>3512.6990000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>251.357</v>
+      </c>
+      <c r="O58">
+        <v>3769.9670000000001</v>
+      </c>
+      <c r="P58">
+        <v>3526.0909999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-61.636000000000003</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2033</v>
+      </c>
+      <c r="T58">
+        <v>3051.8110000000001</v>
+      </c>
+      <c r="U58">
+        <v>26.652999999999999</v>
+      </c>
+      <c r="V58">
+        <v>88.037999999999997</v>
+      </c>
+      <c r="W58">
+        <v>-54.86</v>
+      </c>
+      <c r="X58">
+        <v>-1.044</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>34.524999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>61.267000000000003</v>
+      </c>
+      <c r="D59">
+        <v>258.55200000000002</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>149.072</v>
+      </c>
+      <c r="G59">
+        <v>220.608</v>
+      </c>
+      <c r="H59">
+        <v>6799.6819999999998</v>
+      </c>
+      <c r="I59">
+        <v>7.68</v>
+      </c>
+      <c r="J59">
+        <v>3184.1309999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-17.472000000000001</v>
+      </c>
+      <c r="N59">
+        <v>555.84500000000003</v>
+      </c>
+      <c r="O59">
+        <v>3746.2849999999999</v>
+      </c>
+      <c r="P59">
+        <v>3494.5</v>
+      </c>
+      <c r="Q59">
+        <v>-5.0679999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3053.3969999999999</v>
+      </c>
+      <c r="U59">
+        <v>18.331</v>
+      </c>
+      <c r="V59">
+        <v>102.85899999999999</v>
+      </c>
+      <c r="W59">
+        <v>-57.84</v>
+      </c>
+      <c r="X59">
+        <v>-75.751000000000005</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AA59">
+        <v>61.267000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>136.29900000000001</v>
+      </c>
+      <c r="D60">
+        <v>258.89100000000002</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>149.88999999999999</v>
+      </c>
+      <c r="G60">
+        <v>149.94200000000001</v>
+      </c>
+      <c r="H60">
+        <v>6843.4129999999996</v>
+      </c>
+      <c r="I60">
+        <v>11.884</v>
+      </c>
+      <c r="J60">
+        <v>2973.895</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>720.93499999999995</v>
+      </c>
+      <c r="O60">
+        <v>3701.1280000000002</v>
+      </c>
+      <c r="P60">
+        <v>3455.3150000000001</v>
+      </c>
+      <c r="Q60">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3142.2849999999999</v>
+      </c>
+      <c r="U60">
+        <v>30.03</v>
+      </c>
+      <c r="V60">
+        <v>123.67100000000001</v>
+      </c>
+      <c r="W60">
+        <v>-57.886000000000003</v>
+      </c>
+      <c r="X60">
+        <v>-118.251</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-0.03</v>
+      </c>
+      <c r="AA60">
+        <v>136.29900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>91.733999999999995</v>
+      </c>
+      <c r="D61">
+        <v>261.99799999999999</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="G61">
+        <v>134.203</v>
+      </c>
+      <c r="H61">
+        <v>6887.3410000000003</v>
+      </c>
+      <c r="I61">
+        <v>10.509</v>
+      </c>
+      <c r="J61">
+        <v>3159.4180000000001</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>549.33600000000001</v>
+      </c>
+      <c r="O61">
+        <v>3716.02</v>
+      </c>
+      <c r="P61">
+        <v>3443.0880000000002</v>
+      </c>
+      <c r="Q61">
+        <v>14.846</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3171.3209999999999</v>
+      </c>
+      <c r="U61">
+        <v>44.875999999999998</v>
+      </c>
+      <c r="V61">
+        <v>135.006</v>
+      </c>
+      <c r="W61">
+        <v>-58.31</v>
+      </c>
+      <c r="X61">
+        <v>-73.424999999999997</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1E-3</v>
+      </c>
+      <c r="AA61">
+        <v>91.733999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>42.987000000000002</v>
+      </c>
+      <c r="D62">
+        <v>263.33800000000002</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>157.29</v>
+      </c>
+      <c r="G62">
+        <v>63.646999999999998</v>
+      </c>
+      <c r="H62">
+        <v>6847.7809999999999</v>
+      </c>
+      <c r="I62">
+        <v>5.9219999999999997</v>
+      </c>
+      <c r="J62">
+        <v>3427.5680000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>254.14</v>
+      </c>
+      <c r="O62">
+        <v>3689.9580000000001</v>
+      </c>
+      <c r="P62">
+        <v>3437.9259999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-7.3170000000000002</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>1949</v>
+      </c>
+      <c r="T62">
+        <v>3157.8229999999999</v>
+      </c>
+      <c r="U62">
+        <v>37.558999999999997</v>
+      </c>
+      <c r="V62">
+        <v>102.185</v>
+      </c>
+      <c r="W62">
+        <v>-58.042999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-49.173000000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AA62">
+        <v>42.987000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>43.412999999999997</v>
+      </c>
+      <c r="D63">
+        <v>269.01600000000002</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>158.41800000000001</v>
+      </c>
+      <c r="G63">
+        <v>49.826000000000001</v>
+      </c>
+      <c r="H63">
+        <v>6827.9210000000003</v>
+      </c>
+      <c r="I63">
+        <v>8.2219999999999995</v>
+      </c>
+      <c r="J63">
+        <v>3287.5450000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-35.494</v>
+      </c>
+      <c r="N63">
+        <v>395.73</v>
+      </c>
+      <c r="O63">
+        <v>3692.6880000000001</v>
+      </c>
+      <c r="P63">
+        <v>3456.22</v>
+      </c>
+      <c r="Q63">
+        <v>-9.375</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3135.2330000000002</v>
+      </c>
+      <c r="U63">
+        <v>28.184000000000001</v>
+      </c>
+      <c r="V63">
+        <v>104.08499999999999</v>
+      </c>
+      <c r="W63">
+        <v>-61.856999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-47.542999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>43.412999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>45.143999999999998</v>
+      </c>
+      <c r="D64">
+        <v>272.23599999999999</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>160.55000000000001</v>
+      </c>
+      <c r="G64">
+        <v>51.411000000000001</v>
+      </c>
+      <c r="H64">
+        <v>6869.3810000000003</v>
+      </c>
+      <c r="I64">
+        <v>7.4640000000000004</v>
+      </c>
+      <c r="J64">
+        <v>3333.59</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>406.10300000000001</v>
+      </c>
+      <c r="O64">
+        <v>3750.0619999999999</v>
+      </c>
+      <c r="P64">
+        <v>3501.1849999999999</v>
+      </c>
+      <c r="Q64">
+        <v>-1.905</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3119.319</v>
+      </c>
+      <c r="U64">
+        <v>26.279</v>
+      </c>
+      <c r="V64">
+        <v>134.131</v>
+      </c>
+      <c r="W64">
+        <v>-61.917000000000002</v>
+      </c>
+      <c r="X64">
+        <v>-16.57</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0.375</v>
+      </c>
+      <c r="AA64">
+        <v>45.143999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>84.278999999999996</v>
+      </c>
+      <c r="D65">
+        <v>276.89800000000002</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>161.31100000000001</v>
+      </c>
+      <c r="G65">
+        <v>58.853999999999999</v>
+      </c>
+      <c r="H65">
+        <v>6881.3130000000001</v>
+      </c>
+      <c r="I65">
+        <v>9.08</v>
+      </c>
+      <c r="J65">
+        <v>3354.1570000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>370.21600000000001</v>
+      </c>
+      <c r="O65">
+        <v>3733.7310000000002</v>
+      </c>
+      <c r="P65">
+        <v>3443.107</v>
+      </c>
+      <c r="Q65">
+        <v>1.538</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3147.5819999999999</v>
+      </c>
+      <c r="U65">
+        <v>27.817</v>
+      </c>
+      <c r="V65">
+        <v>151.006</v>
+      </c>
+      <c r="W65">
+        <v>-61.93</v>
+      </c>
+      <c r="X65">
+        <v>-118.746</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0.03</v>
+      </c>
+      <c r="AA65">
+        <v>84.278999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>39.386000000000003</v>
+      </c>
+      <c r="D66">
+        <v>307.19799999999998</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>187.619</v>
+      </c>
+      <c r="G66">
+        <v>124.2</v>
+      </c>
+      <c r="H66">
+        <v>11604.491</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4499.7120000000004</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>452.60500000000002</v>
+      </c>
+      <c r="O66">
+        <v>4962.3900000000003</v>
+      </c>
+      <c r="P66">
+        <v>4499.7120000000004</v>
+      </c>
+      <c r="Q66">
+        <v>5.7190000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2466</v>
+      </c>
+      <c r="T66">
+        <v>6642.1009999999997</v>
+      </c>
+      <c r="U66">
+        <v>33.536000000000001</v>
+      </c>
+      <c r="V66">
+        <v>94.816999999999993</v>
+      </c>
+      <c r="W66">
+        <v>-62.872</v>
+      </c>
+      <c r="X66">
+        <v>405.28399999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>39.386000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>41.905000000000001</v>
+      </c>
+      <c r="D67">
+        <v>378.90800000000002</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>226.654</v>
+      </c>
+      <c r="G67">
+        <v>77.412000000000006</v>
+      </c>
+      <c r="H67">
+        <v>11559.699000000001</v>
+      </c>
+      <c r="I67">
+        <v>13.346</v>
+      </c>
+      <c r="J67">
+        <v>4293.3379999999997</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-93.870999999999995</v>
+      </c>
+      <c r="N67">
+        <v>670.39700000000005</v>
+      </c>
+      <c r="O67">
+        <v>4972.8670000000002</v>
+      </c>
+      <c r="P67">
+        <v>4562.1850000000004</v>
+      </c>
+      <c r="Q67">
+        <v>-63.301000000000002</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6586.8320000000003</v>
+      </c>
+      <c r="U67">
+        <v>33.959000000000003</v>
+      </c>
+      <c r="V67">
+        <v>132.773</v>
+      </c>
+      <c r="W67">
+        <v>-99.712999999999994</v>
+      </c>
+      <c r="X67">
+        <v>-46.918999999999997</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>41.905000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>48.314999999999998</v>
+      </c>
+      <c r="D68">
+        <v>382.791</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>226.077</v>
+      </c>
+      <c r="G68">
+        <v>114.864</v>
+      </c>
+      <c r="H68">
+        <v>11534.129000000001</v>
+      </c>
+      <c r="I68">
+        <v>13.932</v>
+      </c>
+      <c r="J68">
+        <v>4309.9870000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>681.49199999999996</v>
+      </c>
+      <c r="O68">
+        <v>5001.8869999999997</v>
+      </c>
+      <c r="P68">
+        <v>4576.6779999999999</v>
+      </c>
+      <c r="Q68">
+        <v>9.0190000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6532.2420000000002</v>
+      </c>
+      <c r="U68">
+        <v>39.658999999999999</v>
+      </c>
+      <c r="V68">
+        <v>188.45</v>
+      </c>
+      <c r="W68">
+        <v>-99.733000000000004</v>
+      </c>
+      <c r="X68">
+        <v>-80.947999999999993</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>48.314999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>114.709</v>
+      </c>
+      <c r="D69">
+        <v>384.55</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>225.09</v>
+      </c>
+      <c r="G69">
+        <v>153.65199999999999</v>
+      </c>
+      <c r="H69">
+        <v>11532.800999999999</v>
+      </c>
+      <c r="I69">
+        <v>17.274999999999999</v>
+      </c>
+      <c r="J69">
+        <v>4394.8379999999997</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>576.53300000000002</v>
+      </c>
+      <c r="O69">
+        <v>4982.1750000000002</v>
+      </c>
+      <c r="P69">
+        <v>4495.4359999999997</v>
+      </c>
+      <c r="Q69">
+        <v>60.585999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6550.6260000000002</v>
+      </c>
+      <c r="U69">
+        <v>47.850999999999999</v>
+      </c>
+      <c r="V69">
+        <v>236.233</v>
+      </c>
+      <c r="W69">
+        <v>-99.760999999999996</v>
+      </c>
+      <c r="X69">
+        <v>-180.19499999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-0.75</v>
+      </c>
+      <c r="AA69">
+        <v>114.709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>123.45</v>
+      </c>
+      <c r="D70">
+        <v>382.738</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>230.84700000000001</v>
+      </c>
+      <c r="G70">
+        <v>118.988</v>
+      </c>
+      <c r="H70">
+        <v>11491.919</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>4502.0569999999998</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>405.56</v>
+      </c>
+      <c r="O70">
+        <v>4918.0249999999996</v>
+      </c>
+      <c r="P70">
+        <v>4503.357</v>
+      </c>
+      <c r="Q70">
+        <v>-39.237000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2419</v>
+      </c>
+      <c r="T70">
+        <v>6573.8940000000002</v>
+      </c>
+      <c r="U70">
+        <v>10.75</v>
+      </c>
+      <c r="V70">
+        <v>103.34399999999999</v>
+      </c>
+      <c r="W70">
+        <v>-99.775000000000006</v>
+      </c>
+      <c r="X70">
+        <v>-91.460999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-0.75</v>
+      </c>
+      <c r="AA70">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>49.018999999999998</v>
+      </c>
+      <c r="D71">
+        <v>386.017</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>228.733</v>
+      </c>
+      <c r="G71">
+        <v>112.41</v>
+      </c>
+      <c r="H71">
+        <v>11417.376</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>4118.6930000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-151.042</v>
+      </c>
+      <c r="N71">
+        <v>770.53800000000001</v>
+      </c>
+      <c r="O71">
+        <v>4897.0129999999999</v>
+      </c>
+      <c r="P71">
+        <v>4500.451</v>
+      </c>
+      <c r="Q71">
+        <v>-6.7569999999999997</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6520.3630000000003</v>
+      </c>
+      <c r="U71">
+        <v>59.706000000000003</v>
+      </c>
+      <c r="V71">
+        <v>152.70400000000001</v>
+      </c>
+      <c r="W71">
+        <v>-105.798</v>
+      </c>
+      <c r="X71">
+        <v>-112.79600000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-0.75</v>
+      </c>
+      <c r="AA71">
+        <v>49.018999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>59.807000000000002</v>
+      </c>
+      <c r="D72">
+        <v>390.07299999999998</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>229.947</v>
+      </c>
+      <c r="G72">
+        <v>90.052999999999997</v>
+      </c>
+      <c r="H72">
+        <v>11447.129000000001</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>4168.5919999999996</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>789.64700000000005</v>
+      </c>
+      <c r="O72">
+        <v>4967.6490000000003</v>
+      </c>
+      <c r="P72">
+        <v>4549.1350000000002</v>
+      </c>
+      <c r="Q72">
+        <v>-21.306999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6479.48</v>
+      </c>
+      <c r="U72">
+        <v>32.61</v>
+      </c>
+      <c r="V72">
+        <v>211.30099999999999</v>
+      </c>
+      <c r="W72">
+        <v>-105.889</v>
+      </c>
+      <c r="X72">
+        <v>-57.911000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>59.807000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>52.790999999999997</v>
+      </c>
+      <c r="D73">
+        <v>397.108</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>231.065</v>
+      </c>
+      <c r="G73">
+        <v>120.1</v>
+      </c>
+      <c r="H73">
+        <v>11418.986999999999</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>4424.0230000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>553.803</v>
+      </c>
+      <c r="O73">
+        <v>4987.433</v>
+      </c>
+      <c r="P73">
+        <v>4504.0230000000001</v>
+      </c>
+      <c r="Q73">
+        <v>18.597000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6431.5540000000001</v>
+      </c>
+      <c r="U73">
+        <v>46.139000000000003</v>
+      </c>
+      <c r="V73">
+        <v>237.05099999999999</v>
+      </c>
+      <c r="W73">
+        <v>-105.913</v>
+      </c>
+      <c r="X73">
+        <v>-152.05799999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-0.75</v>
+      </c>
+      <c r="AA73">
+        <v>52.790999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>61.281999999999996</v>
+      </c>
+      <c r="D74">
+        <v>398.14800000000002</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>239.38</v>
+      </c>
+      <c r="G74">
+        <v>73.972999999999999</v>
+      </c>
+      <c r="H74">
+        <v>11323.781000000001</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>4528.3280000000004</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>413.85</v>
+      </c>
+      <c r="O74">
+        <v>4951.5919999999996</v>
+      </c>
+      <c r="P74">
+        <v>4533.6279999999997</v>
+      </c>
+      <c r="Q74">
+        <v>-27.727</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2508</v>
+      </c>
+      <c r="T74">
+        <v>6372.1890000000003</v>
+      </c>
+      <c r="U74">
+        <v>34.259</v>
+      </c>
+      <c r="V74">
+        <v>133.23599999999999</v>
+      </c>
+      <c r="W74">
+        <v>-105.937</v>
+      </c>
+      <c r="X74">
+        <v>-82.370999999999995</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-0.63</v>
+      </c>
+      <c r="AA74">
+        <v>61.281999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>63.66</v>
+      </c>
+      <c r="D75">
+        <v>401.178</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>237.959</v>
+      </c>
+      <c r="G75">
+        <v>79.986999999999995</v>
+      </c>
+      <c r="H75">
+        <v>11303.762000000001</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4214.92</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-611.84699999999998</v>
+      </c>
+      <c r="N75">
+        <v>718.94100000000003</v>
+      </c>
+      <c r="O75">
+        <v>4978.4629999999997</v>
+      </c>
+      <c r="P75">
+        <v>4581.6549999999997</v>
+      </c>
+      <c r="Q75">
+        <v>7.7140000000000004</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6325.299</v>
+      </c>
+      <c r="U75">
+        <v>44.622999999999998</v>
+      </c>
+      <c r="V75">
+        <v>154.678</v>
+      </c>
+      <c r="W75">
+        <v>-110.246</v>
+      </c>
+      <c r="X75">
+        <v>-94.08</v>
+      </c>
+      <c r="Y75">
+        <v>33.557000000000002</v>
+      </c>
+      <c r="Z75">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AA75">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>61.917000000000002</v>
+      </c>
+      <c r="D76">
+        <v>407.39</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>239.79400000000001</v>
+      </c>
+      <c r="G76">
+        <v>81.483999999999995</v>
+      </c>
+      <c r="H76">
+        <v>11274.83</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4139.7340000000004</v>
+      </c>
+      <c r="K76">
+        <v>367</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>850.46699999999998</v>
+      </c>
+      <c r="O76">
+        <v>5002.3040000000001</v>
+      </c>
+      <c r="P76">
+        <v>4577.9889999999996</v>
+      </c>
+      <c r="Q76">
+        <v>-1.7030000000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6272.5259999999998</v>
+      </c>
+      <c r="U76">
+        <v>40.972000000000001</v>
+      </c>
+      <c r="V76">
+        <v>213.78899999999999</v>
+      </c>
+      <c r="W76">
+        <v>-110.35599999999999</v>
+      </c>
+      <c r="X76">
+        <v>-127.55</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-2.5590000000000002</v>
+      </c>
+      <c r="AA76">
+        <v>61.917000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>78.644999999999996</v>
+      </c>
+      <c r="D77">
+        <v>415.63200000000001</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>242.19399999999999</v>
+      </c>
+      <c r="G77">
+        <v>103.902</v>
+      </c>
+      <c r="H77">
+        <v>11247.754000000001</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>4256.1170000000002</v>
+      </c>
+      <c r="K77">
+        <v>200</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>709.09400000000005</v>
+      </c>
+      <c r="O77">
+        <v>5011.1440000000002</v>
+      </c>
+      <c r="P77">
+        <v>4519.5709999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-15.002000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6236.61</v>
+      </c>
+      <c r="U77">
+        <v>25.826000000000001</v>
+      </c>
+      <c r="V77">
+        <v>253.071</v>
+      </c>
+      <c r="W77">
+        <v>-110.40300000000001</v>
+      </c>
+      <c r="X77">
+        <v>-178.21799999999999</v>
+      </c>
+      <c r="Y77">
+        <v>32.277000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-1.619</v>
+      </c>
+      <c r="AA77">
+        <v>78.644999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>149.589</v>
+      </c>
+      <c r="D78">
+        <v>416.81700000000001</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>253.214</v>
+      </c>
+      <c r="G78">
+        <v>107.14100000000001</v>
+      </c>
+      <c r="H78">
+        <v>11230.45</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>4454.598</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>439.16199999999998</v>
+      </c>
+      <c r="O78">
+        <v>4940.991</v>
+      </c>
+      <c r="P78">
+        <v>4487.6980000000003</v>
+      </c>
+      <c r="Q78">
+        <v>27.859000000000002</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>2476</v>
+      </c>
+      <c r="T78">
+        <v>6289.4589999999998</v>
+      </c>
+      <c r="U78">
+        <v>20.475999999999999</v>
+      </c>
+      <c r="V78">
+        <v>159.88200000000001</v>
+      </c>
+      <c r="W78">
+        <v>-110.426</v>
+      </c>
+      <c r="X78">
+        <v>-124.431</v>
+      </c>
+      <c r="Y78">
+        <v>33.1</v>
+      </c>
+      <c r="Z78">
+        <v>-0.749</v>
+      </c>
+      <c r="AA78">
+        <v>149.589</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>36.648000000000003</v>
+      </c>
+      <c r="D79">
+        <v>418.09800000000001</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>250.28299999999999</v>
+      </c>
+      <c r="G79">
+        <v>57.947000000000003</v>
+      </c>
+      <c r="H79">
+        <v>11155.977000000001</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>4346.8639999999996</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-70</v>
+      </c>
+      <c r="M79">
+        <v>-31.74</v>
+      </c>
+      <c r="N79">
+        <v>551.58799999999997</v>
+      </c>
+      <c r="O79">
+        <v>4940.4120000000003</v>
+      </c>
+      <c r="P79">
+        <v>4516.5069999999996</v>
+      </c>
+      <c r="Q79">
+        <v>-21.494</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6215.5649999999996</v>
+      </c>
+      <c r="U79">
+        <v>34.508000000000003</v>
+      </c>
+      <c r="V79">
+        <v>160.602</v>
+      </c>
+      <c r="W79">
+        <v>-115.19199999999999</v>
+      </c>
+      <c r="X79">
+        <v>-92.106999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>30.693000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-0.9</v>
+      </c>
+      <c r="AA79">
+        <v>36.648000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>75.061999999999998</v>
+      </c>
+      <c r="D80">
+        <v>413.02600000000001</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>243.82499999999999</v>
+      </c>
+      <c r="G80">
+        <v>56.094000000000001</v>
+      </c>
+      <c r="H80">
+        <v>11131.313</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>4246.7719999999999</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>668.53800000000001</v>
+      </c>
+      <c r="O80">
+        <v>4959.7359999999999</v>
+      </c>
+      <c r="P80">
+        <v>4505.116</v>
+      </c>
+      <c r="Q80">
+        <v>-13.452999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>6171.5770000000002</v>
+      </c>
+      <c r="U80">
+        <v>19.667000000000002</v>
+      </c>
+      <c r="V80">
+        <v>229.01300000000001</v>
+      </c>
+      <c r="W80">
+        <v>-115.27</v>
+      </c>
+      <c r="X80">
+        <v>-134.62</v>
+      </c>
+      <c r="Y80">
+        <v>31.093</v>
+      </c>
+      <c r="Z80">
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>75.061999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>59.91</v>
+      </c>
+      <c r="D81">
+        <v>423.19900000000001</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>240.69399999999999</v>
+      </c>
+      <c r="G81">
+        <v>49.488999999999997</v>
+      </c>
+      <c r="H81">
+        <v>11128.704</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>4390.5940000000001</v>
+      </c>
+      <c r="K81">
+        <v>35</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>573.54</v>
+      </c>
+      <c r="O81">
+        <v>5009.4489999999996</v>
+      </c>
+      <c r="P81">
+        <v>4457.7749999999996</v>
+      </c>
+      <c r="Q81">
+        <v>-8.0050000000000008</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6119.2550000000001</v>
+      </c>
+      <c r="U81">
+        <v>18.407</v>
+      </c>
+      <c r="V81">
+        <v>254.27</v>
+      </c>
+      <c r="W81">
+        <v>-115.28700000000001</v>
+      </c>
+      <c r="X81">
+        <v>-166.958</v>
+      </c>
+      <c r="Y81">
+        <v>31.474</v>
+      </c>
+      <c r="Z81">
+        <v>-1.6020000000000001</v>
+      </c>
+      <c r="AA81">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>83.341999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>423.661</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>250.411</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>74.614999999999995</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>11194.790999999999</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>4271.9309999999996</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>172</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>790.178</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5106.3829999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4594.4520000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>8.0259999999999998</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2530</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6088.4080000000004</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>25.198</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>180.06399999999999</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-115.294</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>19.541</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>28.876999999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-1.7569999999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>83.341999999999999</v>
       </c>
     </row>
